--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_10.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/50/Output_11_10.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1709494.354426992</v>
+        <v>-1710292.599460649</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2483774.929486431</v>
+        <v>2483774.929486427</v>
       </c>
     </row>
     <row r="8">
@@ -1130,22 +1130,22 @@
         </is>
       </c>
       <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>135.7293992974318</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>135.7293992974318</v>
-      </c>
-      <c r="F8" t="n">
-        <v>29.81855126207272</v>
-      </c>
       <c r="G8" t="n">
-        <v>135.7293992974318</v>
+        <v>29.81855126207271</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1218,19 +1218,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>40.12721019528833</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>133.3468600696244</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>127.4412149769483</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>98.93847887876893</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>67.69846245683961</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1260,16 +1260,16 @@
         <v>59.18642621600367</v>
       </c>
       <c r="S9" t="n">
-        <v>60.36402868517428</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>60.09378870120875</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>59.456666199969</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,19 +1333,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>38.15196793284785</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>81.39848696832989</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1370,19 +1370,19 @@
         <v>306.9184284283103</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>254.496314719255</v>
       </c>
       <c r="D11" t="n">
-        <v>285.91104943052</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>307.6531870004255</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>326.8250030884027</v>
+        <v>326.8250030884028</v>
       </c>
       <c r="G11" t="n">
-        <v>328.2706518781363</v>
+        <v>328.2706518781364</v>
       </c>
       <c r="H11" t="n">
         <v>241.3145567775165</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>17.96899140324358</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>169.1127977000021</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>250.4248056684895</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>275.7249051464464</v>
       </c>
       <c r="X11" t="n">
-        <v>295.0251633791929</v>
+        <v>295.025163379193</v>
       </c>
       <c r="Y11" t="n">
         <v>306.4217611753917</v>
@@ -1467,7 +1467,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I12" t="n">
-        <v>58.71574796301679</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>98.53513930300741</v>
       </c>
       <c r="C13" t="n">
-        <v>84.73513414840784</v>
+        <v>72.93049466449746</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>67.30424840176568</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>67.77117272995204</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>83.82714630647796</v>
       </c>
       <c r="H13" t="n">
-        <v>72.64954213184632</v>
+        <v>72.64954213184636</v>
       </c>
       <c r="I13" t="n">
-        <v>52.99855633999326</v>
+        <v>52.99855633999332</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>55.00703014733517</v>
+        <v>55.00703014733521</v>
       </c>
       <c r="S13" t="n">
         <v>124.576136815606</v>
@@ -1582,19 +1582,19 @@
         <v>146.7279179755284</v>
       </c>
       <c r="U13" t="n">
-        <v>201.1217307406358</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>8.215983890642832</v>
+        <v>174.943275702633</v>
       </c>
       <c r="W13" t="n">
-        <v>200.1101617732462</v>
+        <v>200.1101617732463</v>
       </c>
       <c r="X13" t="n">
-        <v>145.7552637690493</v>
+        <v>145.7552637690494</v>
       </c>
       <c r="Y13" t="n">
-        <v>136.630131525117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>306.9184284283103</v>
       </c>
       <c r="C14" t="n">
-        <v>294.929745385992</v>
+        <v>294.9297453859921</v>
       </c>
       <c r="D14" t="n">
-        <v>285.91104943052</v>
+        <v>285.9110494305201</v>
       </c>
       <c r="E14" t="n">
-        <v>307.6531870004255</v>
+        <v>307.6531870004256</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>326.8250030884028</v>
       </c>
       <c r="G14" t="n">
-        <v>328.2706518781363</v>
+        <v>328.2706518781364</v>
       </c>
       <c r="H14" t="n">
-        <v>241.3145567775165</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,22 +1655,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>91.06038950496068</v>
+        <v>91.06038950496074</v>
       </c>
       <c r="T14" t="n">
-        <v>15.29748236051387</v>
+        <v>42.40621098980991</v>
       </c>
       <c r="U14" t="n">
-        <v>169.1127977000021</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>250.4248056684894</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>295.0251633791929</v>
+        <v>295.025163379193</v>
       </c>
       <c r="Y14" t="n">
         <v>306.4217611753917</v>
@@ -1704,7 +1704,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I15" t="n">
-        <v>58.71574796301679</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>98.53513930300741</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>84.73513414840789</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>68.35649854598628</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>30.56307013788006</v>
       </c>
       <c r="G16" t="n">
-        <v>83.82714630647791</v>
+        <v>83.82714630647796</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>72.64954213184636</v>
       </c>
       <c r="I16" t="n">
-        <v>27.13304290354477</v>
+        <v>52.99855633999332</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>55.00703014733517</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>124.576136815606</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>146.7279179755284</v>
       </c>
       <c r="U16" t="n">
-        <v>201.1217307406358</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>174.9432757026329</v>
+        <v>174.943275702633</v>
       </c>
       <c r="W16" t="n">
-        <v>200.1101617732462</v>
+        <v>200.1101617732463</v>
       </c>
       <c r="X16" t="n">
-        <v>145.7552637690493</v>
+        <v>145.7552637690494</v>
       </c>
       <c r="Y16" t="n">
-        <v>136.630131525117</v>
+        <v>136.6301315251171</v>
       </c>
     </row>
     <row r="17">
@@ -1847,13 +1847,13 @@
         <v>221.2892466166701</v>
       </c>
       <c r="D17" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E17" t="n">
         <v>234.0126882311036</v>
       </c>
       <c r="F17" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G17" t="n">
         <v>254.6301531088144</v>
@@ -1892,19 +1892,19 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>17.41989073563872</v>
+        <v>17.41989073563875</v>
       </c>
       <c r="T17" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854028</v>
       </c>
       <c r="U17" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068018</v>
       </c>
       <c r="V17" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W17" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X17" t="n">
         <v>221.384664609871</v>
@@ -1941,7 +1941,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I18" t="n">
-        <v>58.71574796301679</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,10 +1999,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368542</v>
       </c>
       <c r="C19" t="n">
-        <v>11.09463537908587</v>
+        <v>11.0946353790859</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -2014,7 +2014,7 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>10.18664753715594</v>
+        <v>10.18664753715597</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -2023,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.60657171352711</v>
       </c>
       <c r="S19" t="n">
-        <v>96.53472542087094</v>
+        <v>50.93563804628406</v>
       </c>
       <c r="T19" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620643</v>
       </c>
       <c r="U19" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V19" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W19" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X19" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972738</v>
       </c>
       <c r="Y19" t="n">
-        <v>62.98963275579504</v>
+        <v>62.98963275579507</v>
       </c>
     </row>
     <row r="20">
@@ -2144,7 +2144,7 @@
         <v>202.0844063771244</v>
       </c>
       <c r="X20" t="n">
-        <v>221.3846646098701</v>
+        <v>221.384664609871</v>
       </c>
       <c r="Y20" t="n">
         <v>232.7812624060697</v>
@@ -2178,7 +2178,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I21" t="n">
-        <v>58.71574796301679</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2281,13 +2281,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>19.83638472416912</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>96.53472542087049</v>
+        <v>76.69834069670156</v>
       </c>
       <c r="T22" t="n">
         <v>73.08741920620643</v>
@@ -2369,7 +2369,7 @@
         <v>17.41989073563875</v>
       </c>
       <c r="T23" t="n">
-        <v>63.15562969854028</v>
+        <v>63.15562969854029</v>
       </c>
       <c r="U23" t="n">
         <v>95.47229893068018</v>
@@ -2415,7 +2415,7 @@
         <v>96.41874164113864</v>
       </c>
       <c r="I24" t="n">
-        <v>58.71574796301679</v>
+        <v>58.71574796301678</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2524,7 +2524,7 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>50.93563804628406</v>
+        <v>96.53472542087071</v>
       </c>
       <c r="T25" t="n">
         <v>73.08741920620643</v>
@@ -2533,7 +2533,7 @@
         <v>127.4812319713139</v>
       </c>
       <c r="V25" t="n">
-        <v>146.9018643078977</v>
+        <v>101.302776933311</v>
       </c>
       <c r="W25" t="n">
         <v>126.4696630039243</v>
@@ -2725,13 +2725,13 @@
         <v>47.41878318356872</v>
       </c>
       <c r="G28" t="n">
-        <v>63.47475676009464</v>
+        <v>63.47475676009465</v>
       </c>
       <c r="H28" t="n">
-        <v>52.29715258546304</v>
+        <v>52.29715258546305</v>
       </c>
       <c r="I28" t="n">
-        <v>32.64616679361001</v>
+        <v>32.64616679360999</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>34.65464060095189</v>
+        <v>34.65464060095188</v>
       </c>
       <c r="S28" t="n">
         <v>104.2237472692227</v>
@@ -2789,13 +2789,13 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>286.566038881927</v>
+        <v>286.5660388819271</v>
       </c>
       <c r="C29" t="n">
-        <v>274.5773558396087</v>
+        <v>274.5773558396088</v>
       </c>
       <c r="D29" t="n">
-        <v>265.5586598841367</v>
+        <v>265.5586598841368</v>
       </c>
       <c r="E29" t="n">
         <v>287.3007974540423</v>
@@ -2810,7 +2810,7 @@
         <v>220.9621672311332</v>
       </c>
       <c r="I29" t="n">
-        <v>48.7530259132047</v>
+        <v>48.75302591320471</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.70799995857742</v>
+        <v>70.70799995857743</v>
       </c>
       <c r="T29" t="n">
         <v>116.443738921479</v>
@@ -2852,7 +2852,7 @@
         <v>230.0724161221061</v>
       </c>
       <c r="W29" t="n">
-        <v>255.372515600063</v>
+        <v>255.3725156000631</v>
       </c>
       <c r="X29" t="n">
         <v>274.6727738328096</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>78.18274975662409</v>
+        <v>78.1827497566241</v>
       </c>
       <c r="C31" t="n">
-        <v>64.38274460202457</v>
+        <v>64.38274460202459</v>
       </c>
       <c r="D31" t="n">
-        <v>48.00410899960296</v>
+        <v>48.00410899960298</v>
       </c>
       <c r="E31" t="n">
-        <v>46.95185885538241</v>
+        <v>46.95185885538243</v>
       </c>
       <c r="F31" t="n">
-        <v>47.41878318356872</v>
+        <v>47.41878318356873</v>
       </c>
       <c r="G31" t="n">
-        <v>63.47475676009465</v>
+        <v>63.47475676009466</v>
       </c>
       <c r="H31" t="n">
-        <v>52.29715258546305</v>
+        <v>52.29715258546307</v>
       </c>
       <c r="I31" t="n">
-        <v>32.64616679360999</v>
+        <v>32.64616679361001</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>34.65464060095191</v>
+        <v>34.65464060095189</v>
       </c>
       <c r="S31" t="n">
         <v>104.2237472692227</v>
@@ -3010,13 +3010,13 @@
         <v>154.5908861562497</v>
       </c>
       <c r="W31" t="n">
-        <v>179.7577722268629</v>
+        <v>179.757772226863</v>
       </c>
       <c r="X31" t="n">
         <v>125.4028742226661</v>
       </c>
       <c r="Y31" t="n">
-        <v>116.2777419787337</v>
+        <v>116.2777419787338</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>251.4501286956956</v>
+        <v>251.4501286956955</v>
       </c>
       <c r="C32" t="n">
-        <v>239.4614456533774</v>
+        <v>239.4614456533772</v>
       </c>
       <c r="D32" t="n">
-        <v>230.4427496979053</v>
+        <v>230.4427496979052</v>
       </c>
       <c r="E32" t="n">
-        <v>252.1848872678109</v>
+        <v>252.1848872678108</v>
       </c>
       <c r="F32" t="n">
-        <v>271.356703355788</v>
+        <v>271.3567033557879</v>
       </c>
       <c r="G32" t="n">
-        <v>272.8023521455217</v>
+        <v>272.8023521455216</v>
       </c>
       <c r="H32" t="n">
-        <v>185.8462570449018</v>
+        <v>185.8462570449017</v>
       </c>
       <c r="I32" t="n">
-        <v>13.63711572697329</v>
+        <v>13.63711572697318</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>35.59208977234601</v>
+        <v>35.5920897723459</v>
       </c>
       <c r="T32" t="n">
-        <v>81.32782873524755</v>
+        <v>81.32782873524744</v>
       </c>
       <c r="U32" t="n">
-        <v>113.6444979673875</v>
+        <v>113.6444979673873</v>
       </c>
       <c r="V32" t="n">
-        <v>194.9565059358747</v>
+        <v>194.9565059358746</v>
       </c>
       <c r="W32" t="n">
-        <v>220.2566054138316</v>
+        <v>220.2566054138315</v>
       </c>
       <c r="X32" t="n">
-        <v>239.5568636465783</v>
+        <v>239.5568636465781</v>
       </c>
       <c r="Y32" t="n">
-        <v>250.953461442777</v>
+        <v>250.9534614427769</v>
       </c>
     </row>
     <row r="33">
@@ -3184,25 +3184,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>43.06683957039269</v>
+        <v>43.06683957039257</v>
       </c>
       <c r="C34" t="n">
-        <v>29.26683441579317</v>
+        <v>29.26683441579306</v>
       </c>
       <c r="D34" t="n">
-        <v>12.88819881337156</v>
+        <v>12.88819881337145</v>
       </c>
       <c r="E34" t="n">
-        <v>11.83594866915101</v>
+        <v>11.83594866915089</v>
       </c>
       <c r="F34" t="n">
-        <v>12.30287299733732</v>
+        <v>12.3028729973372</v>
       </c>
       <c r="G34" t="n">
-        <v>28.35884657386324</v>
+        <v>28.35884657386313</v>
       </c>
       <c r="H34" t="n">
-        <v>17.18124239923164</v>
+        <v>17.18124239923152</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,25 +3235,25 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>69.10783708299132</v>
+        <v>69.10783708299121</v>
       </c>
       <c r="T34" t="n">
-        <v>91.2596182429137</v>
+        <v>91.25961824291359</v>
       </c>
       <c r="U34" t="n">
-        <v>145.6534310080211</v>
+        <v>145.653431008021</v>
       </c>
       <c r="V34" t="n">
-        <v>119.4749759700183</v>
+        <v>119.4749759700182</v>
       </c>
       <c r="W34" t="n">
-        <v>144.6418620406315</v>
+        <v>144.6418620406314</v>
       </c>
       <c r="X34" t="n">
-        <v>90.28696403643465</v>
+        <v>90.28696403643454</v>
       </c>
       <c r="Y34" t="n">
-        <v>81.16183179250234</v>
+        <v>81.16183179250223</v>
       </c>
     </row>
     <row r="35">
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>233.2779296589883</v>
+        <v>233.2779296589884</v>
       </c>
       <c r="C35" t="n">
         <v>221.2892466166701</v>
       </c>
       <c r="D35" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E35" t="n">
         <v>234.0126882311036</v>
       </c>
       <c r="F35" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G35" t="n">
         <v>254.6301531088144</v>
       </c>
       <c r="H35" t="n">
-        <v>167.6740580081945</v>
+        <v>167.6740580081946</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>17.41989073563872</v>
+        <v>17.41989073563877</v>
       </c>
       <c r="T35" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854031</v>
       </c>
       <c r="U35" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068021</v>
       </c>
       <c r="V35" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W35" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X35" t="n">
         <v>221.384664609871</v>
       </c>
       <c r="Y35" t="n">
-        <v>232.7812624060697</v>
+        <v>232.7812624060698</v>
       </c>
     </row>
     <row r="36">
@@ -3421,10 +3421,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368545</v>
       </c>
       <c r="C37" t="n">
-        <v>11.09463537908587</v>
+        <v>11.09463537908593</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3436,10 +3436,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>10.18664753715594</v>
+        <v>10.186647537156</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>45.59908737458633</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>50.93563804628403</v>
+        <v>50.93563804628409</v>
       </c>
       <c r="T37" t="n">
-        <v>118.6865065807933</v>
+        <v>73.08741920620646</v>
       </c>
       <c r="U37" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V37" t="n">
         <v>101.302776933311</v>
       </c>
       <c r="W37" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X37" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972741</v>
       </c>
       <c r="Y37" t="n">
-        <v>62.98963275579504</v>
+        <v>62.9896327557951</v>
       </c>
     </row>
     <row r="38">
@@ -3500,25 +3500,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>233.2779296589883</v>
+        <v>233.2779296589884</v>
       </c>
       <c r="C38" t="n">
         <v>221.2892466166701</v>
       </c>
       <c r="D38" t="n">
-        <v>212.270550661198</v>
+        <v>212.2705506611981</v>
       </c>
       <c r="E38" t="n">
         <v>234.0126882311036</v>
       </c>
       <c r="F38" t="n">
-        <v>253.1845043190807</v>
+        <v>253.1845043190808</v>
       </c>
       <c r="G38" t="n">
         <v>254.6301531088144</v>
       </c>
       <c r="H38" t="n">
-        <v>167.6740580081945</v>
+        <v>167.6740580081946</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,25 +3551,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>17.41989073563872</v>
+        <v>17.41989073563877</v>
       </c>
       <c r="T38" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854031</v>
       </c>
       <c r="U38" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068021</v>
       </c>
       <c r="V38" t="n">
-        <v>176.7843068991674</v>
+        <v>176.7843068991675</v>
       </c>
       <c r="W38" t="n">
-        <v>202.0844063771243</v>
+        <v>202.0844063771244</v>
       </c>
       <c r="X38" t="n">
         <v>221.384664609871</v>
       </c>
       <c r="Y38" t="n">
-        <v>232.7812624060697</v>
+        <v>232.7812624060698</v>
       </c>
     </row>
     <row r="39">
@@ -3658,10 +3658,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368545</v>
       </c>
       <c r="C40" t="n">
-        <v>11.09463537908587</v>
+        <v>11.09463537908593</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>10.18664753715594</v>
+        <v>10.186647537156</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -3709,25 +3709,25 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>96.53472542087094</v>
+        <v>50.93563804628409</v>
       </c>
       <c r="T40" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620646</v>
       </c>
       <c r="U40" t="n">
-        <v>127.4812319713138</v>
+        <v>127.4812319713139</v>
       </c>
       <c r="V40" t="n">
-        <v>101.302776933311</v>
+        <v>146.9018643078974</v>
       </c>
       <c r="W40" t="n">
-        <v>126.4696630039242</v>
+        <v>126.4696630039243</v>
       </c>
       <c r="X40" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972741</v>
       </c>
       <c r="Y40" t="n">
-        <v>62.98963275579504</v>
+        <v>62.9896327557951</v>
       </c>
     </row>
     <row r="41">
@@ -3740,19 +3740,19 @@
         <v>233.2779296589883</v>
       </c>
       <c r="C41" t="n">
-        <v>221.2892466166701</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D41" t="n">
         <v>212.270550661198</v>
       </c>
       <c r="E41" t="n">
-        <v>234.0126882311036</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F41" t="n">
         <v>253.1845043190807</v>
       </c>
       <c r="G41" t="n">
-        <v>254.6301531088144</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H41" t="n">
         <v>167.6740580081945</v>
@@ -3788,13 +3788,13 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>17.41989073563872</v>
+        <v>17.41989073563869</v>
       </c>
       <c r="T41" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854022</v>
       </c>
       <c r="U41" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068013</v>
       </c>
       <c r="V41" t="n">
         <v>176.7843068991674</v>
@@ -3803,7 +3803,7 @@
         <v>202.0844063771243</v>
       </c>
       <c r="X41" t="n">
-        <v>221.384664609871</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y41" t="n">
         <v>232.7812624060697</v>
@@ -3895,10 +3895,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368536</v>
       </c>
       <c r="C43" t="n">
-        <v>11.09463537908587</v>
+        <v>11.09463537908584</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3910,7 +3910,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>10.18664753715594</v>
+        <v>10.18664753715591</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3946,10 +3946,10 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>96.53472542087115</v>
+        <v>96.53472542087127</v>
       </c>
       <c r="T43" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620638</v>
       </c>
       <c r="U43" t="n">
         <v>127.4812319713138</v>
@@ -3961,10 +3961,10 @@
         <v>126.4696630039242</v>
       </c>
       <c r="X43" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972733</v>
       </c>
       <c r="Y43" t="n">
-        <v>62.98963275579504</v>
+        <v>62.98963275579501</v>
       </c>
     </row>
     <row r="44">
@@ -3977,19 +3977,19 @@
         <v>233.2779296589883</v>
       </c>
       <c r="C44" t="n">
-        <v>221.2892466166701</v>
+        <v>221.28924661667</v>
       </c>
       <c r="D44" t="n">
         <v>212.270550661198</v>
       </c>
       <c r="E44" t="n">
-        <v>234.0126882311036</v>
+        <v>234.0126882311035</v>
       </c>
       <c r="F44" t="n">
         <v>253.1845043190807</v>
       </c>
       <c r="G44" t="n">
-        <v>254.6301531088144</v>
+        <v>254.6301531088143</v>
       </c>
       <c r="H44" t="n">
         <v>167.6740580081945</v>
@@ -4025,13 +4025,13 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>17.41989073563872</v>
+        <v>17.41989073563869</v>
       </c>
       <c r="T44" t="n">
-        <v>63.15562969854025</v>
+        <v>63.15562969854023</v>
       </c>
       <c r="U44" t="n">
-        <v>95.47229893068015</v>
+        <v>95.47229893068013</v>
       </c>
       <c r="V44" t="n">
         <v>176.7843068991674</v>
@@ -4040,7 +4040,7 @@
         <v>202.0844063771243</v>
       </c>
       <c r="X44" t="n">
-        <v>221.384664609871</v>
+        <v>221.3846646098709</v>
       </c>
       <c r="Y44" t="n">
         <v>232.7812624060697</v>
@@ -4132,10 +4132,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.89464053368539</v>
+        <v>24.89464053368536</v>
       </c>
       <c r="C46" t="n">
-        <v>11.09463537908587</v>
+        <v>11.09463537908584</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4147,7 +4147,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>10.18664753715594</v>
+        <v>10.18664753715591</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>50.93563804628403</v>
+        <v>96.53472542087115</v>
       </c>
       <c r="T46" t="n">
-        <v>73.08741920620641</v>
+        <v>73.08741920620638</v>
       </c>
       <c r="U46" t="n">
         <v>127.4812319713138</v>
       </c>
       <c r="V46" t="n">
-        <v>146.9018643078979</v>
+        <v>101.302776933311</v>
       </c>
       <c r="W46" t="n">
         <v>126.4696630039242</v>
       </c>
       <c r="X46" t="n">
-        <v>72.11476499972736</v>
+        <v>72.11476499972733</v>
       </c>
       <c r="Y46" t="n">
-        <v>62.98963275579504</v>
+        <v>62.98963275579501</v>
       </c>
     </row>
   </sheetData>
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="C8" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="D8" t="n">
-        <v>315.1789073548413</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="E8" t="n">
         <v>178.0785040241021</v>
       </c>
       <c r="F8" t="n">
-        <v>147.9587552745337</v>
+        <v>40.97810069336293</v>
       </c>
       <c r="G8" t="n">
         <v>10.85835194379454</v>
@@ -4802,25 +4802,25 @@
         <v>10.85835194379454</v>
       </c>
       <c r="J8" t="n">
-        <v>10.85835194379454</v>
+        <v>82.85689621660021</v>
       </c>
       <c r="K8" t="n">
-        <v>10.85835194379454</v>
+        <v>217.2290015210577</v>
       </c>
       <c r="L8" t="n">
-        <v>145.230457248252</v>
+        <v>314.1132381987326</v>
       </c>
       <c r="M8" t="n">
-        <v>279.6025625527094</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="N8" t="n">
-        <v>413.9746678571669</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="O8" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="P8" t="n">
-        <v>542.9175971897271</v>
+        <v>448.4853435031901</v>
       </c>
       <c r="Q8" t="n">
         <v>542.9175971897271</v>
@@ -4841,13 +4841,13 @@
         <v>452.2793106855804</v>
       </c>
       <c r="W8" t="n">
-        <v>452.2793106855804</v>
+        <v>315.1789073548413</v>
       </c>
       <c r="X8" t="n">
-        <v>452.2793106855804</v>
+        <v>178.0785040241021</v>
       </c>
       <c r="Y8" t="n">
-        <v>452.2793106855804</v>
+        <v>178.0785040241021</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>10.85835194379454</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="C9" t="n">
-        <v>10.85835194379454</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="D9" t="n">
-        <v>10.85835194379454</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="E9" t="n">
-        <v>10.85835194379454</v>
+        <v>442.6007927338766</v>
       </c>
       <c r="F9" t="n">
-        <v>10.85835194379454</v>
+        <v>307.9069946837509</v>
       </c>
       <c r="G9" t="n">
-        <v>10.85835194379454</v>
+        <v>179.1784947070355</v>
       </c>
       <c r="H9" t="n">
-        <v>10.85835194379454</v>
+        <v>79.24063725373355</v>
       </c>
       <c r="I9" t="n">
         <v>10.85835194379454</v>
@@ -4884,22 +4884,22 @@
         <v>71.11249847690068</v>
       </c>
       <c r="K9" t="n">
-        <v>71.11249847690068</v>
+        <v>205.4846037813581</v>
       </c>
       <c r="L9" t="n">
-        <v>205.4846037813581</v>
+        <v>339.8567090858156</v>
       </c>
       <c r="M9" t="n">
-        <v>205.4846037813581</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="N9" t="n">
-        <v>205.4846037813581</v>
+        <v>408.5454918852696</v>
       </c>
       <c r="O9" t="n">
-        <v>339.8567090858156</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="P9" t="n">
-        <v>474.2288143902731</v>
+        <v>542.9175971897271</v>
       </c>
       <c r="Q9" t="n">
         <v>542.9175971897271</v>
@@ -4908,25 +4908,25 @@
         <v>483.1333282846729</v>
       </c>
       <c r="S9" t="n">
-        <v>422.159561936012</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="T9" t="n">
-        <v>285.0591586052728</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="U9" t="n">
-        <v>147.9587552745337</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="V9" t="n">
-        <v>10.85835194379454</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="W9" t="n">
-        <v>10.85835194379454</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="X9" t="n">
-        <v>10.85835194379454</v>
+        <v>483.1333282846729</v>
       </c>
       <c r="Y9" t="n">
-        <v>10.85835194379454</v>
+        <v>483.1333282846729</v>
       </c>
     </row>
     <row r="10">
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="C10" t="n">
-        <v>10.85835194379454</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="D10" t="n">
-        <v>10.85835194379454</v>
+        <v>482.2168005218393</v>
       </c>
       <c r="E10" t="n">
-        <v>10.85835194379454</v>
+        <v>345.1163971911002</v>
       </c>
       <c r="F10" t="n">
-        <v>10.85835194379454</v>
+        <v>208.015993860361</v>
       </c>
       <c r="G10" t="n">
-        <v>10.85835194379454</v>
+        <v>208.015993860361</v>
       </c>
       <c r="H10" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="I10" t="n">
-        <v>10.85835194379454</v>
+        <v>70.91559052962182</v>
       </c>
       <c r="J10" t="n">
         <v>10.85835194379454</v>
@@ -4981,31 +4981,31 @@
         <v>542.917597189727</v>
       </c>
       <c r="Q10" t="n">
-        <v>504.380255843416</v>
+        <v>542.917597189727</v>
       </c>
       <c r="R10" t="n">
-        <v>367.2798525126768</v>
+        <v>542.917597189727</v>
       </c>
       <c r="S10" t="n">
-        <v>230.1794491819377</v>
+        <v>542.917597189727</v>
       </c>
       <c r="T10" t="n">
-        <v>93.07904585119849</v>
+        <v>542.917597189727</v>
       </c>
       <c r="U10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="V10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="W10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="X10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
       <c r="Y10" t="n">
-        <v>10.85835194379454</v>
+        <v>542.917597189727</v>
       </c>
     </row>
     <row r="11">
@@ -5015,37 +5015,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1558.321367776462</v>
+        <v>1215.828517562633</v>
       </c>
       <c r="C11" t="n">
-        <v>1558.321367776462</v>
+        <v>958.7615329977298</v>
       </c>
       <c r="D11" t="n">
-        <v>1269.522327947654</v>
+        <v>958.7615329977298</v>
       </c>
       <c r="E11" t="n">
-        <v>958.7615329977295</v>
+        <v>958.7615329977298</v>
       </c>
       <c r="F11" t="n">
-        <v>628.6352672518682</v>
+        <v>628.6352672518684</v>
       </c>
       <c r="G11" t="n">
         <v>297.0487502032457</v>
       </c>
       <c r="H11" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I11" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J11" t="n">
-        <v>166.2674185418011</v>
+        <v>166.267418541801</v>
       </c>
       <c r="K11" t="n">
-        <v>467.8144998655658</v>
+        <v>467.8144998655656</v>
       </c>
       <c r="L11" t="n">
-        <v>891.8803257637579</v>
+        <v>891.8803257637578</v>
       </c>
       <c r="M11" t="n">
         <v>1369.88492417339</v>
@@ -5057,34 +5057,34 @@
         <v>2220.694643393615</v>
       </c>
       <c r="P11" t="n">
-        <v>2518.270574687117</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q11" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R11" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S11" t="n">
-        <v>2646.683136143025</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="T11" t="n">
-        <v>2646.683136143025</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="U11" t="n">
-        <v>2475.862128365245</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="V11" t="n">
-        <v>2475.862128365245</v>
+        <v>2411.879283349847</v>
       </c>
       <c r="W11" t="n">
-        <v>2475.862128365245</v>
+        <v>2133.369278151416</v>
       </c>
       <c r="X11" t="n">
-        <v>2177.856912830707</v>
+        <v>1835.364062616878</v>
       </c>
       <c r="Y11" t="n">
-        <v>1868.339982350513</v>
+        <v>1525.847132136684</v>
       </c>
     </row>
     <row r="12">
@@ -5115,10 +5115,10 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I12" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J12" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K12" t="n">
         <v>324.495433302602</v>
@@ -5130,13 +5130,13 @@
         <v>1296.877318651937</v>
       </c>
       <c r="N12" t="n">
-        <v>1732.651502445915</v>
+        <v>1875.319949093722</v>
       </c>
       <c r="O12" t="n">
-        <v>2186.305269792479</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P12" t="n">
-        <v>2537.723294723684</v>
+        <v>2346.981143485614</v>
       </c>
       <c r="Q12" t="n">
         <v>2537.723294723684</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>333.7890777229392</v>
+        <v>407.0107253499642</v>
       </c>
       <c r="C13" t="n">
-        <v>248.198033128588</v>
+        <v>333.3435590221884</v>
       </c>
       <c r="D13" t="n">
-        <v>248.198033128588</v>
+        <v>333.3435590221884</v>
       </c>
       <c r="E13" t="n">
-        <v>180.2139438338751</v>
+        <v>333.3435590221884</v>
       </c>
       <c r="F13" t="n">
-        <v>180.2139438338751</v>
+        <v>264.8878289919338</v>
       </c>
       <c r="G13" t="n">
-        <v>180.2139438338751</v>
+        <v>180.2139438338752</v>
       </c>
       <c r="H13" t="n">
-        <v>106.8305679431212</v>
+        <v>106.8305679431213</v>
       </c>
       <c r="I13" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J13" t="n">
-        <v>92.096911083333</v>
+        <v>92.09691108333308</v>
       </c>
       <c r="K13" t="n">
         <v>233.2121540029765</v>
       </c>
       <c r="L13" t="n">
-        <v>448.3659302505778</v>
+        <v>448.3659302505777</v>
       </c>
       <c r="M13" t="n">
-        <v>682.6561851132413</v>
+        <v>682.6561851132411</v>
       </c>
       <c r="N13" t="n">
-        <v>916.5681650535108</v>
+        <v>916.5681650535105</v>
       </c>
       <c r="O13" t="n">
         <v>1127.991847180004</v>
@@ -5230,19 +5230,19 @@
         <v>1032.610564287274</v>
       </c>
       <c r="U13" t="n">
-        <v>829.4573009128941</v>
+        <v>1032.610564287274</v>
       </c>
       <c r="V13" t="n">
-        <v>821.1583272859822</v>
+        <v>855.9001847896643</v>
       </c>
       <c r="W13" t="n">
-        <v>619.0268507473496</v>
+        <v>653.7687082510317</v>
       </c>
       <c r="X13" t="n">
-        <v>471.7993115866938</v>
+        <v>506.5411690903758</v>
       </c>
       <c r="Y13" t="n">
-        <v>333.7890777229392</v>
+        <v>506.5411690903758</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1526.103935753825</v>
+        <v>1612.47812394664</v>
       </c>
       <c r="C14" t="n">
-        <v>1228.195102030601</v>
+        <v>1314.569290223416</v>
       </c>
       <c r="D14" t="n">
-        <v>939.3960622017926</v>
+        <v>1025.770250394608</v>
       </c>
       <c r="E14" t="n">
-        <v>628.6352672518678</v>
+        <v>715.0094554446827</v>
       </c>
       <c r="F14" t="n">
-        <v>628.6352672518678</v>
+        <v>384.8831896988214</v>
       </c>
       <c r="G14" t="n">
-        <v>297.0487502032457</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H14" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I14" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J14" t="n">
-        <v>166.2674185418009</v>
+        <v>166.2674185418011</v>
       </c>
       <c r="K14" t="n">
-        <v>467.8144998655655</v>
+        <v>467.8144998655658</v>
       </c>
       <c r="L14" t="n">
-        <v>891.8803257637576</v>
+        <v>891.880325763758</v>
       </c>
       <c r="M14" t="n">
-        <v>1369.884924173389</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N14" t="n">
-        <v>1834.353308329473</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O14" t="n">
         <v>2220.694643393615</v>
       </c>
       <c r="P14" t="n">
-        <v>2518.270574687117</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q14" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R14" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S14" t="n">
-        <v>2572.853441090785</v>
+        <v>2572.853441090786</v>
       </c>
       <c r="T14" t="n">
-        <v>2557.401438706428</v>
+        <v>2530.018884535423</v>
       </c>
       <c r="U14" t="n">
-        <v>2386.580430928647</v>
+        <v>2530.018884535423</v>
       </c>
       <c r="V14" t="n">
-        <v>2133.626081768557</v>
+        <v>2530.018884535423</v>
       </c>
       <c r="W14" t="n">
-        <v>2133.626081768557</v>
+        <v>2530.018884535423</v>
       </c>
       <c r="X14" t="n">
-        <v>1835.620866234019</v>
+        <v>2232.013669000885</v>
       </c>
       <c r="Y14" t="n">
-        <v>1526.103935753825</v>
+        <v>1922.496738520691</v>
       </c>
     </row>
     <row r="15">
@@ -5352,22 +5352,22 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I15" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J15" t="n">
-        <v>137.9535817797791</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K15" t="n">
-        <v>409.1523424321824</v>
+        <v>324.495433302602</v>
       </c>
       <c r="L15" t="n">
-        <v>831.0560204948498</v>
+        <v>746.3991113652694</v>
       </c>
       <c r="M15" t="n">
-        <v>1381.534227781518</v>
+        <v>1296.877318651937</v>
       </c>
       <c r="N15" t="n">
-        <v>1541.909351207845</v>
+        <v>1875.319949093722</v>
       </c>
       <c r="O15" t="n">
         <v>1995.563118554409</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1467.993583571401</v>
+        <v>450.3976298326145</v>
       </c>
       <c r="C16" t="n">
-        <v>1467.993583571401</v>
+        <v>364.8065852382631</v>
       </c>
       <c r="D16" t="n">
-        <v>1467.993583571401</v>
+        <v>295.7596170099945</v>
       </c>
       <c r="E16" t="n">
-        <v>1467.993583571401</v>
+        <v>295.7596170099945</v>
       </c>
       <c r="F16" t="n">
-        <v>1467.993583571401</v>
+        <v>264.8878289919338</v>
       </c>
       <c r="G16" t="n">
-        <v>1383.319698413342</v>
+        <v>180.2139438338752</v>
       </c>
       <c r="H16" t="n">
-        <v>1383.319698413342</v>
+        <v>106.8305679431213</v>
       </c>
       <c r="I16" t="n">
-        <v>1355.912584369358</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J16" t="n">
-        <v>1394.712822802492</v>
+        <v>92.09691108333308</v>
       </c>
       <c r="K16" t="n">
-        <v>1535.828065722136</v>
+        <v>233.2121540029765</v>
       </c>
       <c r="L16" t="n">
-        <v>1750.981841969737</v>
+        <v>448.3659302505778</v>
       </c>
       <c r="M16" t="n">
-        <v>1985.272096832401</v>
+        <v>682.6561851132413</v>
       </c>
       <c r="N16" t="n">
-        <v>2219.18407677267</v>
+        <v>916.5681650535107</v>
       </c>
       <c r="O16" t="n">
-        <v>2430.607758899163</v>
+        <v>1127.991847180004</v>
       </c>
       <c r="P16" t="n">
-        <v>2602.118824449281</v>
+        <v>1299.502912730122</v>
       </c>
       <c r="Q16" t="n">
-        <v>2664.833632509937</v>
+        <v>1362.217720790778</v>
       </c>
       <c r="R16" t="n">
-        <v>2609.270975795457</v>
+        <v>1362.217720790778</v>
       </c>
       <c r="S16" t="n">
-        <v>2483.436494163532</v>
+        <v>1362.217720790778</v>
       </c>
       <c r="T16" t="n">
-        <v>2335.226476006433</v>
+        <v>1214.007702633678</v>
       </c>
       <c r="U16" t="n">
-        <v>2132.073212632053</v>
+        <v>1214.007702633678</v>
       </c>
       <c r="V16" t="n">
-        <v>1955.362833134444</v>
+        <v>1037.297323136069</v>
       </c>
       <c r="W16" t="n">
-        <v>1753.231356595812</v>
+        <v>835.1658465974367</v>
       </c>
       <c r="X16" t="n">
-        <v>1606.003817435156</v>
+        <v>687.9383074367807</v>
       </c>
       <c r="Y16" t="n">
-        <v>1467.993583571401</v>
+        <v>549.928073573026</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1409.924148352281</v>
+        <v>1409.92414835228</v>
       </c>
       <c r="C17" t="n">
         <v>1186.399656820291</v>
       </c>
       <c r="D17" t="n">
-        <v>971.9849591827175</v>
+        <v>971.9849591827167</v>
       </c>
       <c r="E17" t="n">
-        <v>735.608506424027</v>
+        <v>735.6085064240262</v>
       </c>
       <c r="F17" t="n">
-        <v>479.8665828694001</v>
+        <v>479.8665828693993</v>
       </c>
       <c r="G17" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H17" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I17" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J17" t="n">
-        <v>166.267418541801</v>
+        <v>166.2674185418008</v>
       </c>
       <c r="K17" t="n">
-        <v>467.8144998655656</v>
+        <v>467.8144998655654</v>
       </c>
       <c r="L17" t="n">
         <v>891.8803257637576</v>
@@ -5531,34 +5531,34 @@
         <v>2220.694643393615</v>
       </c>
       <c r="P17" t="n">
-        <v>2518.270574687117</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q17" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R17" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S17" t="n">
-        <v>2647.23778328202</v>
+        <v>2647.237783282019</v>
       </c>
       <c r="T17" t="n">
         <v>2583.444217929959</v>
       </c>
       <c r="U17" t="n">
-        <v>2487.007552343413</v>
+        <v>2487.007552343412</v>
       </c>
       <c r="V17" t="n">
-        <v>2308.437545374557</v>
+        <v>2308.437545374556</v>
       </c>
       <c r="W17" t="n">
-        <v>2104.311882367361</v>
+        <v>2104.311882367359</v>
       </c>
       <c r="X17" t="n">
-        <v>1880.691009024057</v>
+        <v>1880.691009024056</v>
       </c>
       <c r="Y17" t="n">
-        <v>1645.558420735098</v>
+        <v>1645.558420735096</v>
       </c>
     </row>
     <row r="18">
@@ -5589,25 +5589,25 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I18" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J18" t="n">
-        <v>71.30409969552659</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K18" t="n">
-        <v>342.5028603479298</v>
+        <v>409.1523424321824</v>
       </c>
       <c r="L18" t="n">
-        <v>764.4065384105972</v>
+        <v>831.0560204948499</v>
       </c>
       <c r="M18" t="n">
-        <v>1314.884745697265</v>
+        <v>963.4667207660596</v>
       </c>
       <c r="N18" t="n">
-        <v>1893.32737613905</v>
+        <v>1541.909351207845</v>
       </c>
       <c r="O18" t="n">
-        <v>2346.981143485614</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P18" t="n">
         <v>2346.981143485614</v>
@@ -5647,31 +5647,31 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>74.79291802013998</v>
+        <v>119.2298025262609</v>
       </c>
       <c r="C19" t="n">
-        <v>63.58621561702293</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="D19" t="n">
-        <v>63.58621561702293</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="E19" t="n">
-        <v>63.58621561702293</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="F19" t="n">
-        <v>63.58621561702293</v>
+        <v>108.0231001231438</v>
       </c>
       <c r="G19" t="n">
-        <v>53.29667265019874</v>
+        <v>97.73355715631956</v>
       </c>
       <c r="H19" t="n">
-        <v>53.29667265019874</v>
+        <v>97.73355715631956</v>
       </c>
       <c r="I19" t="n">
-        <v>53.29667265019874</v>
+        <v>97.73355715631956</v>
       </c>
       <c r="J19" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K19" t="n">
         <v>112.0590866322588</v>
@@ -5683,40 +5683,40 @@
         <v>396.797459867357</v>
       </c>
       <c r="N19" t="n">
-        <v>548.356610870043</v>
+        <v>548.3566108700431</v>
       </c>
       <c r="O19" t="n">
-        <v>677.427464058953</v>
+        <v>677.4274640589531</v>
       </c>
       <c r="P19" t="n">
-        <v>766.5857006714875</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="Q19" t="n">
-        <v>766.5857006714875</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="R19" t="n">
-        <v>766.5857006714875</v>
+        <v>764.9629009608543</v>
       </c>
       <c r="S19" t="n">
-        <v>669.0758770140421</v>
+        <v>713.5127615201634</v>
       </c>
       <c r="T19" t="n">
-        <v>595.2502010481771</v>
+        <v>639.6870855542983</v>
       </c>
       <c r="U19" t="n">
-        <v>466.4812798650319</v>
+        <v>510.918164371153</v>
       </c>
       <c r="V19" t="n">
-        <v>364.1552425586572</v>
+        <v>408.5921270647782</v>
       </c>
       <c r="W19" t="n">
-        <v>236.408108211259</v>
+        <v>280.84499271738</v>
       </c>
       <c r="X19" t="n">
-        <v>163.5649112418374</v>
+        <v>208.0017957479583</v>
       </c>
       <c r="Y19" t="n">
-        <v>99.93901956931714</v>
+        <v>144.3759040754381</v>
       </c>
     </row>
     <row r="20">
@@ -5729,55 +5729,55 @@
         <v>1409.924148352281</v>
       </c>
       <c r="C20" t="n">
-        <v>1186.399656820292</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D20" t="n">
-        <v>971.9849591827176</v>
+        <v>971.9849591827169</v>
       </c>
       <c r="E20" t="n">
-        <v>735.6085064240272</v>
+        <v>735.6085064240265</v>
       </c>
       <c r="F20" t="n">
-        <v>479.8665828694</v>
+        <v>479.8665828693995</v>
       </c>
       <c r="G20" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H20" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I20" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J20" t="n">
-        <v>166.2674185418004</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K20" t="n">
-        <v>467.814499865565</v>
+        <v>467.8144998655654</v>
       </c>
       <c r="L20" t="n">
-        <v>891.8803257637571</v>
+        <v>891.8803257637576</v>
       </c>
       <c r="M20" t="n">
-        <v>1369.884924173389</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N20" t="n">
-        <v>1834.353308329473</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O20" t="n">
         <v>2220.694643393615</v>
       </c>
       <c r="P20" t="n">
-        <v>2518.270574687117</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q20" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R20" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S20" t="n">
-        <v>2647.237783282019</v>
+        <v>2647.23778328202</v>
       </c>
       <c r="T20" t="n">
         <v>2583.444217929959</v>
@@ -5792,10 +5792,10 @@
         <v>2104.31188236736</v>
       </c>
       <c r="X20" t="n">
-        <v>1880.691009024057</v>
+        <v>1880.691009024056</v>
       </c>
       <c r="Y20" t="n">
-        <v>1645.558420735098</v>
+        <v>1645.558420735097</v>
       </c>
     </row>
     <row r="21">
@@ -5826,19 +5826,19 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I21" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J21" t="n">
-        <v>137.9535817797791</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K21" t="n">
-        <v>137.9535817797791</v>
+        <v>409.1523424321824</v>
       </c>
       <c r="L21" t="n">
-        <v>559.8572598424466</v>
+        <v>831.0560204948499</v>
       </c>
       <c r="M21" t="n">
-        <v>1110.335467129114</v>
+        <v>1381.534227781518</v>
       </c>
       <c r="N21" t="n">
         <v>1541.909351207845</v>
@@ -5899,16 +5899,16 @@
         <v>63.58621561702296</v>
       </c>
       <c r="G22" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H22" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I22" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J22" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K22" t="n">
         <v>112.0590866322588</v>
@@ -5920,19 +5920,19 @@
         <v>396.797459867357</v>
       </c>
       <c r="N22" t="n">
-        <v>548.356610870043</v>
+        <v>548.3566108700431</v>
       </c>
       <c r="O22" t="n">
-        <v>677.427464058953</v>
+        <v>677.4274640589531</v>
       </c>
       <c r="P22" t="n">
-        <v>766.5857006714875</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="Q22" t="n">
-        <v>766.5857006714875</v>
+        <v>746.5489484248523</v>
       </c>
       <c r="R22" t="n">
-        <v>766.5857006714875</v>
+        <v>746.5489484248523</v>
       </c>
       <c r="S22" t="n">
         <v>669.0758770140426</v>
@@ -5963,73 +5963,73 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1409.924148352282</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C23" t="n">
-        <v>1186.399656820292</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D23" t="n">
-        <v>971.9849591827181</v>
+        <v>971.9849591827171</v>
       </c>
       <c r="E23" t="n">
-        <v>735.6085064240274</v>
+        <v>735.6085064240267</v>
       </c>
       <c r="F23" t="n">
-        <v>479.8665828694004</v>
+        <v>479.8665828693997</v>
       </c>
       <c r="G23" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H23" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I23" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J23" t="n">
-        <v>166.2674185418018</v>
+        <v>166.2674185418009</v>
       </c>
       <c r="K23" t="n">
-        <v>467.8144998655663</v>
+        <v>467.8144998655656</v>
       </c>
       <c r="L23" t="n">
-        <v>891.8803257637585</v>
+        <v>891.8803257637578</v>
       </c>
       <c r="M23" t="n">
-        <v>1369.884924173391</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N23" t="n">
-        <v>1834.353308329475</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O23" t="n">
-        <v>2220.694643393616</v>
+        <v>2220.694643393615</v>
       </c>
       <c r="P23" t="n">
-        <v>2518.270574687119</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q23" t="n">
-        <v>2664.833632509939</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R23" t="n">
-        <v>2664.833632509939</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S23" t="n">
-        <v>2647.237783282021</v>
+        <v>2647.23778328202</v>
       </c>
       <c r="T23" t="n">
-        <v>2583.44421792996</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U23" t="n">
-        <v>2487.007552343414</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V23" t="n">
-        <v>2308.437545374558</v>
+        <v>2308.437545374557</v>
       </c>
       <c r="W23" t="n">
-        <v>2104.311882367362</v>
+        <v>2104.311882367361</v>
       </c>
       <c r="X23" t="n">
-        <v>1880.691009024058</v>
+        <v>1880.691009024057</v>
       </c>
       <c r="Y23" t="n">
         <v>1645.558420735098</v>
@@ -6042,16 +6042,16 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>920.7272604704571</v>
+        <v>920.7272604704568</v>
       </c>
       <c r="C24" t="n">
-        <v>759.0235877114118</v>
+        <v>759.0235877114116</v>
       </c>
       <c r="D24" t="n">
-        <v>620.1849507016238</v>
+        <v>620.1849507016236</v>
       </c>
       <c r="E24" t="n">
-        <v>473.156940758495</v>
+        <v>473.1569407584949</v>
       </c>
       <c r="F24" t="n">
         <v>338.4631427083693</v>
@@ -6060,10 +6060,10 @@
         <v>209.9981773008608</v>
       </c>
       <c r="H24" t="n">
-        <v>112.6055089764784</v>
+        <v>112.6055089764783</v>
       </c>
       <c r="I24" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J24" t="n">
         <v>137.9535817797792</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>74.79291802014006</v>
+        <v>74.79291802014004</v>
       </c>
       <c r="C25" t="n">
-        <v>63.58621561702299</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="D25" t="n">
-        <v>63.58621561702299</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="E25" t="n">
-        <v>63.58621561702299</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="F25" t="n">
-        <v>63.58621561702299</v>
+        <v>63.58621561702296</v>
       </c>
       <c r="G25" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H25" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I25" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J25" t="n">
-        <v>53.29667265019877</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K25" t="n">
         <v>112.0590866322588</v>
@@ -6172,25 +6172,25 @@
         <v>766.5857006714878</v>
       </c>
       <c r="S25" t="n">
-        <v>715.1355612307968</v>
+        <v>669.0758770140426</v>
       </c>
       <c r="T25" t="n">
-        <v>641.3098852649317</v>
+        <v>595.2502010481775</v>
       </c>
       <c r="U25" t="n">
-        <v>512.5409640817863</v>
+        <v>466.4812798650321</v>
       </c>
       <c r="V25" t="n">
         <v>364.1552425586574</v>
       </c>
       <c r="W25" t="n">
-        <v>236.4081082112592</v>
+        <v>236.4081082112591</v>
       </c>
       <c r="X25" t="n">
         <v>163.5649112418375</v>
       </c>
       <c r="Y25" t="n">
-        <v>99.93901956931725</v>
+        <v>99.93901956931722</v>
       </c>
     </row>
     <row r="26">
@@ -6212,16 +6212,16 @@
         <v>962.7170795131503</v>
       </c>
       <c r="F26" t="n">
-        <v>653.1487830060598</v>
+        <v>653.1487830060599</v>
       </c>
       <c r="G26" t="n">
-        <v>342.1202351962079</v>
+        <v>342.1202351962083</v>
       </c>
       <c r="H26" t="n">
-        <v>118.926126881932</v>
+        <v>118.9261268819319</v>
       </c>
       <c r="I26" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152316</v>
       </c>
       <c r="J26" t="n">
         <v>285.1530866416282</v>
@@ -6242,10 +6242,10 @@
         <v>2852.088784435957</v>
       </c>
       <c r="P26" t="n">
-        <v>3190.976345943419</v>
+        <v>3252.166410317962</v>
       </c>
       <c r="Q26" t="n">
-        <v>3440.041098354742</v>
+        <v>3440.041098354741</v>
       </c>
       <c r="R26" t="n">
         <v>3484.032308076158</v>
@@ -6297,31 +6297,31 @@
         <v>226.3821508121852</v>
       </c>
       <c r="H27" t="n">
-        <v>128.9894824878028</v>
+        <v>128.9894824878027</v>
       </c>
       <c r="I27" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152316</v>
       </c>
       <c r="J27" t="n">
-        <v>69.68064616152317</v>
+        <v>154.3375552911036</v>
       </c>
       <c r="K27" t="n">
-        <v>198.2109601661189</v>
+        <v>425.5363159435068</v>
       </c>
       <c r="L27" t="n">
-        <v>620.1146382287864</v>
+        <v>847.4399940061742</v>
       </c>
       <c r="M27" t="n">
-        <v>1170.592845515454</v>
+        <v>979.8506942773838</v>
       </c>
       <c r="N27" t="n">
-        <v>1749.035475957239</v>
+        <v>1558.293324719169</v>
       </c>
       <c r="O27" t="n">
-        <v>2202.689243303803</v>
+        <v>2011.947092065733</v>
       </c>
       <c r="P27" t="n">
-        <v>2554.107268235009</v>
+        <v>2363.365116996938</v>
       </c>
       <c r="Q27" t="n">
         <v>2554.107268235009</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>428.4438499794488</v>
+        <v>428.4438499794482</v>
       </c>
       <c r="C28" t="n">
-        <v>363.4107746238684</v>
+        <v>363.4107746238678</v>
       </c>
       <c r="D28" t="n">
-        <v>314.9217756343705</v>
+        <v>314.9217756343699</v>
       </c>
       <c r="E28" t="n">
-        <v>267.4956555784286</v>
+        <v>267.4956555784281</v>
       </c>
       <c r="F28" t="n">
-        <v>219.5978947869451</v>
+        <v>219.5978947869445</v>
       </c>
       <c r="G28" t="n">
-        <v>155.4819788676576</v>
+        <v>155.481978867657</v>
       </c>
       <c r="H28" t="n">
-        <v>102.6565722156747</v>
+        <v>102.6565722156741</v>
       </c>
       <c r="I28" t="n">
-        <v>69.68064616152317</v>
+        <v>69.68064616152316</v>
       </c>
       <c r="J28" t="n">
-        <v>128.629750245577</v>
+        <v>128.6297502455766</v>
       </c>
       <c r="K28" t="n">
-        <v>289.8938588161399</v>
+        <v>289.8938588161394</v>
       </c>
       <c r="L28" t="n">
-        <v>525.1965007146603</v>
+        <v>525.19650071466</v>
       </c>
       <c r="M28" t="n">
-        <v>779.6356212282434</v>
+        <v>779.6356212282431</v>
       </c>
       <c r="N28" t="n">
         <v>1033.696466819432</v>
       </c>
       <c r="O28" t="n">
-        <v>1265.269014596845</v>
+        <v>1265.269014596844</v>
       </c>
       <c r="P28" t="n">
         <v>1456.928945797882</v>
       </c>
       <c r="Q28" t="n">
-        <v>1539.792619509458</v>
+        <v>1539.792619509457</v>
       </c>
       <c r="R28" t="n">
-        <v>1504.787932033749</v>
+        <v>1504.787932033748</v>
       </c>
       <c r="S28" t="n">
-        <v>1399.511419640594</v>
+        <v>1399.511419640593</v>
       </c>
       <c r="T28" t="n">
-        <v>1271.859370722266</v>
+        <v>1271.859370722265</v>
       </c>
       <c r="U28" t="n">
         <v>1089.264076586657</v>
       </c>
       <c r="V28" t="n">
-        <v>933.1116663278194</v>
+        <v>933.1116663278187</v>
       </c>
       <c r="W28" t="n">
-        <v>751.5381590279578</v>
+        <v>751.5381590279571</v>
       </c>
       <c r="X28" t="n">
-        <v>624.8685891060729</v>
+        <v>624.8685891060722</v>
       </c>
       <c r="Y28" t="n">
-        <v>507.4163244810893</v>
+        <v>507.4163244810887</v>
       </c>
     </row>
     <row r="29">
@@ -6440,40 +6440,40 @@
         <v>1798.511840298795</v>
       </c>
       <c r="C29" t="n">
-        <v>1521.160975814342</v>
+        <v>1521.160975814341</v>
       </c>
       <c r="D29" t="n">
-        <v>1252.919905224305</v>
+        <v>1252.919905224304</v>
       </c>
       <c r="E29" t="n">
-        <v>962.7170795131508</v>
+        <v>962.7170795131503</v>
       </c>
       <c r="F29" t="n">
-        <v>653.1487830060604</v>
+        <v>653.1487830060601</v>
       </c>
       <c r="G29" t="n">
-        <v>342.1202351962088</v>
+        <v>342.1202351962083</v>
       </c>
       <c r="H29" t="n">
-        <v>118.9261268819319</v>
+        <v>118.926126881932</v>
       </c>
       <c r="I29" t="n">
-        <v>69.68064616152316</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="J29" t="n">
-        <v>285.1530866416282</v>
+        <v>285.1530866416281</v>
       </c>
       <c r="K29" t="n">
-        <v>628.0117981793526</v>
+        <v>689.2018625538956</v>
       </c>
       <c r="L29" t="n">
-        <v>1154.579318666048</v>
+        <v>1215.769383040591</v>
       </c>
       <c r="M29" t="n">
         <v>1735.085611664183</v>
       </c>
       <c r="N29" t="n">
-        <v>2302.055690408769</v>
+        <v>2302.05569040877</v>
       </c>
       <c r="O29" t="n">
         <v>2790.898720061414</v>
@@ -6482,7 +6482,7 @@
         <v>3190.976345943419</v>
       </c>
       <c r="Q29" t="n">
-        <v>3440.041098354741</v>
+        <v>3440.041098354742</v>
       </c>
       <c r="R29" t="n">
         <v>3484.032308076158</v>
@@ -6491,7 +6491,7 @@
         <v>3412.610085895777</v>
       </c>
       <c r="T29" t="n">
-        <v>3294.990147591252</v>
+        <v>3294.990147591253</v>
       </c>
       <c r="U29" t="n">
         <v>3144.727109052244</v>
@@ -6506,7 +6506,7 @@
         <v>2376.931446875497</v>
       </c>
       <c r="Y29" t="n">
-        <v>2087.972485634075</v>
+        <v>2087.972485634074</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>226.3821508121852</v>
       </c>
       <c r="H30" t="n">
-        <v>128.9894824878027</v>
+        <v>128.9894824878028</v>
       </c>
       <c r="I30" t="n">
-        <v>69.68064616152316</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="J30" t="n">
-        <v>69.68064616152316</v>
+        <v>154.3375552911036</v>
       </c>
       <c r="K30" t="n">
-        <v>340.8794068139264</v>
+        <v>425.5363159435068</v>
       </c>
       <c r="L30" t="n">
-        <v>762.7830848765939</v>
+        <v>847.4399940061742</v>
       </c>
       <c r="M30" t="n">
-        <v>1313.261292163261</v>
+        <v>979.8506942773838</v>
       </c>
       <c r="N30" t="n">
-        <v>1891.703922605047</v>
+        <v>1558.293324719169</v>
       </c>
       <c r="O30" t="n">
-        <v>2202.689243303803</v>
+        <v>2011.947092065733</v>
       </c>
       <c r="P30" t="n">
-        <v>2554.107268235009</v>
+        <v>2363.365116996938</v>
       </c>
       <c r="Q30" t="n">
         <v>2554.107268235009</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>428.443849979449</v>
+        <v>428.4438499794493</v>
       </c>
       <c r="C31" t="n">
-        <v>363.4107746238686</v>
+        <v>363.4107746238689</v>
       </c>
       <c r="D31" t="n">
-        <v>314.9217756343707</v>
+        <v>314.9217756343709</v>
       </c>
       <c r="E31" t="n">
-        <v>267.4956555784289</v>
+        <v>267.4956555784291</v>
       </c>
       <c r="F31" t="n">
-        <v>219.5978947869453</v>
+        <v>219.5978947869455</v>
       </c>
       <c r="G31" t="n">
-        <v>155.4819788676577</v>
+        <v>155.481978867658</v>
       </c>
       <c r="H31" t="n">
-        <v>102.6565722156749</v>
+        <v>102.6565722156751</v>
       </c>
       <c r="I31" t="n">
-        <v>69.68064616152316</v>
+        <v>69.68064616152317</v>
       </c>
       <c r="J31" t="n">
-        <v>128.6297502455768</v>
+        <v>128.6297502455766</v>
       </c>
       <c r="K31" t="n">
-        <v>289.8938588161397</v>
+        <v>289.8938588161395</v>
       </c>
       <c r="L31" t="n">
-        <v>525.1965007146603</v>
+        <v>525.1965007146601</v>
       </c>
       <c r="M31" t="n">
-        <v>779.6356212282435</v>
+        <v>779.6356212282432</v>
       </c>
       <c r="N31" t="n">
         <v>1033.696466819432</v>
@@ -6637,7 +6637,7 @@
         <v>1265.269014596845</v>
       </c>
       <c r="P31" t="n">
-        <v>1456.928945797882</v>
+        <v>1456.928945797883</v>
       </c>
       <c r="Q31" t="n">
         <v>1539.792619509458</v>
@@ -6646,25 +6646,25 @@
         <v>1504.787932033749</v>
       </c>
       <c r="S31" t="n">
-        <v>1399.511419640594</v>
+        <v>1399.511419640595</v>
       </c>
       <c r="T31" t="n">
         <v>1271.859370722266</v>
       </c>
       <c r="U31" t="n">
-        <v>1089.264076586657</v>
+        <v>1089.264076586658</v>
       </c>
       <c r="V31" t="n">
-        <v>933.1116663278194</v>
+        <v>933.1116663278196</v>
       </c>
       <c r="W31" t="n">
-        <v>751.5381590279578</v>
+        <v>751.538159027958</v>
       </c>
       <c r="X31" t="n">
-        <v>624.8685891060729</v>
+        <v>624.8685891060732</v>
       </c>
       <c r="Y31" t="n">
-        <v>507.4163244810895</v>
+        <v>507.4163244810898</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1539.359173906899</v>
+        <v>1539.359173906898</v>
       </c>
       <c r="C32" t="n">
-        <v>1297.478925772174</v>
+        <v>1297.478925772173</v>
       </c>
       <c r="D32" t="n">
-        <v>1064.708471531866</v>
+        <v>1064.708471531865</v>
       </c>
       <c r="E32" t="n">
-        <v>809.9762621704407</v>
+        <v>809.9762621704399</v>
       </c>
       <c r="F32" t="n">
-        <v>535.878582013079</v>
+        <v>535.8785820130784</v>
       </c>
       <c r="G32" t="n">
-        <v>260.3206505529561</v>
+        <v>260.3206505529557</v>
       </c>
       <c r="H32" t="n">
-        <v>72.5971585884087</v>
+        <v>72.5971585884086</v>
       </c>
       <c r="I32" t="n">
-        <v>58.82229421772861</v>
+        <v>58.82229421772863</v>
       </c>
       <c r="J32" t="n">
-        <v>171.7930401093308</v>
+        <v>309.0594857822028</v>
       </c>
       <c r="K32" t="n">
-        <v>473.3401214330954</v>
+        <v>665.3396174362736</v>
       </c>
       <c r="L32" t="n">
-        <v>897.4059473312875</v>
+        <v>1089.405443334466</v>
       </c>
       <c r="M32" t="n">
-        <v>1430.143596071226</v>
+        <v>1567.410041744098</v>
       </c>
       <c r="N32" t="n">
-        <v>2031.878425900181</v>
+        <v>2031.878425900182</v>
       </c>
       <c r="O32" t="n">
-        <v>2418.219760964323</v>
+        <v>2418.219760964324</v>
       </c>
       <c r="P32" t="n">
         <v>2715.795692257826</v>
       </c>
       <c r="Q32" t="n">
-        <v>2862.358750080645</v>
+        <v>2862.358750080646</v>
       </c>
       <c r="R32" t="n">
         <v>2941.114710886431</v>
       </c>
       <c r="S32" t="n">
-        <v>2905.163105055779</v>
+        <v>2905.163105055778</v>
       </c>
       <c r="T32" t="n">
         <v>2823.013783100983</v>
       </c>
       <c r="U32" t="n">
-        <v>2708.221360911704</v>
+        <v>2708.221360911703</v>
       </c>
       <c r="V32" t="n">
-        <v>2511.295597340114</v>
+        <v>2511.295597340112</v>
       </c>
       <c r="W32" t="n">
-        <v>2288.814177730183</v>
+        <v>2288.814177730181</v>
       </c>
       <c r="X32" t="n">
-        <v>2046.837547784144</v>
+        <v>2046.837547784143</v>
       </c>
       <c r="Y32" t="n">
-        <v>1793.34920289245</v>
+        <v>1793.349202892449</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>118.1311305440082</v>
       </c>
       <c r="I33" t="n">
-        <v>58.82229421772861</v>
+        <v>58.82229421772863</v>
       </c>
       <c r="J33" t="n">
-        <v>58.82229421772861</v>
+        <v>143.479203347309</v>
       </c>
       <c r="K33" t="n">
-        <v>187.3526082223246</v>
+        <v>414.6779639997122</v>
       </c>
       <c r="L33" t="n">
-        <v>609.256286284992</v>
+        <v>836.5816420623796</v>
       </c>
       <c r="M33" t="n">
-        <v>1159.73449357166</v>
+        <v>968.9923423335895</v>
       </c>
       <c r="N33" t="n">
-        <v>1738.177124013445</v>
+        <v>1547.434972775375</v>
       </c>
       <c r="O33" t="n">
-        <v>2191.830891360009</v>
+        <v>2001.088740121939</v>
       </c>
       <c r="P33" t="n">
-        <v>2543.248916291214</v>
+        <v>2352.506765053144</v>
       </c>
       <c r="Q33" t="n">
         <v>2543.248916291214</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>171.7858738831305</v>
+        <v>171.7858738831299</v>
       </c>
       <c r="C34" t="n">
-        <v>142.2234148772789</v>
+        <v>142.2234148772783</v>
       </c>
       <c r="D34" t="n">
-        <v>129.2050322375096</v>
+        <v>129.2050322375092</v>
       </c>
       <c r="E34" t="n">
-        <v>117.2495285312965</v>
+        <v>117.2495285312961</v>
       </c>
       <c r="F34" t="n">
-        <v>104.8223840895416</v>
+        <v>104.8223840895414</v>
       </c>
       <c r="G34" t="n">
-        <v>76.17708451998278</v>
+        <v>76.17708451998269</v>
       </c>
       <c r="H34" t="n">
-        <v>58.82229421772861</v>
+        <v>58.82229421772863</v>
       </c>
       <c r="I34" t="n">
-        <v>58.82229421772861</v>
+        <v>58.82229421772863</v>
       </c>
       <c r="J34" t="n">
-        <v>152.5361493861515</v>
+        <v>113.8095514454387</v>
       </c>
       <c r="K34" t="n">
-        <v>309.8384111003722</v>
+        <v>172.5719654274988</v>
       </c>
       <c r="L34" t="n">
-        <v>442.6393584103902</v>
+        <v>305.3729127375167</v>
       </c>
       <c r="M34" t="n">
-        <v>594.5767843354704</v>
+        <v>457.310338662597</v>
       </c>
       <c r="N34" t="n">
-        <v>746.1359353381565</v>
+        <v>608.869489665283</v>
       </c>
       <c r="O34" t="n">
-        <v>875.2067885270665</v>
+        <v>875.2067885270649</v>
       </c>
       <c r="P34" t="n">
-        <v>964.365025139601</v>
+        <v>964.3650251395994</v>
       </c>
       <c r="Q34" t="n">
-        <v>964.365025139601</v>
+        <v>964.3650251395994</v>
       </c>
       <c r="R34" t="n">
-        <v>964.365025139601</v>
+        <v>964.3650251395994</v>
       </c>
       <c r="S34" t="n">
-        <v>894.5591290961754</v>
+        <v>894.5591290961739</v>
       </c>
       <c r="T34" t="n">
-        <v>802.3776965275757</v>
+        <v>802.3776965275744</v>
       </c>
       <c r="U34" t="n">
-        <v>655.2530187416958</v>
+        <v>655.2530187416945</v>
       </c>
       <c r="V34" t="n">
-        <v>534.5712248325864</v>
+        <v>534.5712248325852</v>
       </c>
       <c r="W34" t="n">
-        <v>388.4683338824535</v>
+        <v>388.4683338824525</v>
       </c>
       <c r="X34" t="n">
-        <v>297.2693803102973</v>
+        <v>297.2693803102964</v>
       </c>
       <c r="Y34" t="n">
-        <v>215.2877320350424</v>
+        <v>215.2877320350416</v>
       </c>
     </row>
     <row r="35">
@@ -6917,28 +6917,28 @@
         <v>1186.399656820292</v>
       </c>
       <c r="D35" t="n">
-        <v>971.9849591827179</v>
+        <v>971.9849591827178</v>
       </c>
       <c r="E35" t="n">
-        <v>735.6085064240275</v>
+        <v>735.6085064240273</v>
       </c>
       <c r="F35" t="n">
-        <v>479.8665828694005</v>
+        <v>479.8665828694002</v>
       </c>
       <c r="G35" t="n">
-        <v>222.6644080120114</v>
+        <v>222.6644080120115</v>
       </c>
       <c r="H35" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I35" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J35" t="n">
         <v>166.2674185418005</v>
       </c>
       <c r="K35" t="n">
-        <v>467.8144998655648</v>
+        <v>467.814499865565</v>
       </c>
       <c r="L35" t="n">
         <v>891.8803257637571</v>
@@ -6953,19 +6953,19 @@
         <v>2220.694643393615</v>
       </c>
       <c r="P35" t="n">
-        <v>2518.270574687117</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q35" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R35" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S35" t="n">
-        <v>2647.23778328202</v>
+        <v>2647.237783282021</v>
       </c>
       <c r="T35" t="n">
-        <v>2583.444217929959</v>
+        <v>2583.44421792996</v>
       </c>
       <c r="U35" t="n">
         <v>2487.007552343414</v>
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>920.7272604704568</v>
+        <v>920.7272604704571</v>
       </c>
       <c r="C36" t="n">
-        <v>759.0235877114116</v>
+        <v>759.0235877114118</v>
       </c>
       <c r="D36" t="n">
-        <v>620.1849507016236</v>
+        <v>620.1849507016238</v>
       </c>
       <c r="E36" t="n">
-        <v>473.1569407584949</v>
+        <v>473.156940758495</v>
       </c>
       <c r="F36" t="n">
         <v>338.4631427083693</v>
@@ -7011,16 +7011,16 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I36" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J36" t="n">
-        <v>137.9535817797791</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K36" t="n">
         <v>409.1523424321824</v>
       </c>
       <c r="L36" t="n">
-        <v>831.0560204948498</v>
+        <v>831.0560204948499</v>
       </c>
       <c r="M36" t="n">
         <v>1381.534227781518</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>74.79291802013996</v>
+        <v>120.852602236894</v>
       </c>
       <c r="C37" t="n">
-        <v>63.58621561702292</v>
+        <v>109.6458998337769</v>
       </c>
       <c r="D37" t="n">
-        <v>63.58621561702292</v>
+        <v>109.6458998337769</v>
       </c>
       <c r="E37" t="n">
-        <v>63.58621561702292</v>
+        <v>109.6458998337769</v>
       </c>
       <c r="F37" t="n">
-        <v>63.58621561702292</v>
+        <v>109.6458998337769</v>
       </c>
       <c r="G37" t="n">
-        <v>53.29667265019874</v>
+        <v>99.35635686695262</v>
       </c>
       <c r="H37" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I37" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J37" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K37" t="n">
         <v>112.0590866322588</v>
@@ -7105,40 +7105,40 @@
         <v>396.797459867357</v>
       </c>
       <c r="N37" t="n">
-        <v>548.356610870043</v>
+        <v>548.3566108700431</v>
       </c>
       <c r="O37" t="n">
-        <v>677.427464058953</v>
+        <v>677.4274640589531</v>
       </c>
       <c r="P37" t="n">
-        <v>766.5857006714875</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="Q37" t="n">
-        <v>766.5857006714875</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="R37" t="n">
-        <v>766.5857006714875</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="S37" t="n">
-        <v>715.1355612307966</v>
+        <v>715.1355612307967</v>
       </c>
       <c r="T37" t="n">
-        <v>595.2502010481771</v>
+        <v>641.3098852649316</v>
       </c>
       <c r="U37" t="n">
-        <v>466.4812798650319</v>
+        <v>512.5409640817862</v>
       </c>
       <c r="V37" t="n">
-        <v>364.1552425586572</v>
+        <v>410.2149267754114</v>
       </c>
       <c r="W37" t="n">
-        <v>236.4081082112589</v>
+        <v>282.4677924280131</v>
       </c>
       <c r="X37" t="n">
-        <v>163.5649112418374</v>
+        <v>209.6245954585915</v>
       </c>
       <c r="Y37" t="n">
-        <v>99.93901956931713</v>
+        <v>145.9987037860712</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1409.92414835228</v>
+        <v>1409.924148352281</v>
       </c>
       <c r="C38" t="n">
-        <v>1186.39965682029</v>
+        <v>1186.399656820291</v>
       </c>
       <c r="D38" t="n">
-        <v>971.9849591827167</v>
+        <v>971.9849591827171</v>
       </c>
       <c r="E38" t="n">
-        <v>735.6085064240262</v>
+        <v>735.6085064240266</v>
       </c>
       <c r="F38" t="n">
-        <v>479.8665828693993</v>
+        <v>479.8665828693995</v>
       </c>
       <c r="G38" t="n">
-        <v>222.6644080120114</v>
+        <v>222.6644080120115</v>
       </c>
       <c r="H38" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I38" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J38" t="n">
-        <v>166.2674185418005</v>
+        <v>166.2674185418011</v>
       </c>
       <c r="K38" t="n">
-        <v>467.8144998655648</v>
+        <v>467.8144998655657</v>
       </c>
       <c r="L38" t="n">
-        <v>891.8803257637569</v>
+        <v>891.8803257637579</v>
       </c>
       <c r="M38" t="n">
-        <v>1369.884924173389</v>
+        <v>1369.88492417339</v>
       </c>
       <c r="N38" t="n">
-        <v>1834.353308329473</v>
+        <v>1834.353308329474</v>
       </c>
       <c r="O38" t="n">
         <v>2220.694643393615</v>
       </c>
       <c r="P38" t="n">
-        <v>2518.270574687117</v>
+        <v>2518.270574687118</v>
       </c>
       <c r="Q38" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="R38" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509938</v>
       </c>
       <c r="S38" t="n">
         <v>2647.237783282019</v>
       </c>
       <c r="T38" t="n">
-        <v>2583.444217929958</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U38" t="n">
-        <v>2487.007552343412</v>
+        <v>2487.007552343413</v>
       </c>
       <c r="V38" t="n">
         <v>2308.437545374557</v>
       </c>
       <c r="W38" t="n">
-        <v>2104.31188236736</v>
+        <v>2104.311882367361</v>
       </c>
       <c r="X38" t="n">
-        <v>1880.691009024056</v>
+        <v>1880.691009024057</v>
       </c>
       <c r="Y38" t="n">
-        <v>1645.558420735097</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="39">
@@ -7227,16 +7227,16 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>920.7272604704568</v>
+        <v>920.7272604704571</v>
       </c>
       <c r="C39" t="n">
-        <v>759.0235877114116</v>
+        <v>759.0235877114118</v>
       </c>
       <c r="D39" t="n">
-        <v>620.1849507016236</v>
+        <v>620.1849507016238</v>
       </c>
       <c r="E39" t="n">
-        <v>473.1569407584949</v>
+        <v>473.156940758495</v>
       </c>
       <c r="F39" t="n">
         <v>338.4631427083693</v>
@@ -7248,19 +7248,19 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I39" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J39" t="n">
-        <v>137.9535817797791</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K39" t="n">
-        <v>409.1523424321824</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="L39" t="n">
-        <v>831.0560204948498</v>
+        <v>475.2003507128662</v>
       </c>
       <c r="M39" t="n">
-        <v>1381.534227781518</v>
+        <v>963.4667207660596</v>
       </c>
       <c r="N39" t="n">
         <v>1541.909351207845</v>
@@ -7306,31 +7306,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>74.79291802013996</v>
+        <v>74.79291802014009</v>
       </c>
       <c r="C40" t="n">
-        <v>63.58621561702292</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="D40" t="n">
-        <v>63.58621561702292</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="E40" t="n">
-        <v>63.58621561702292</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="F40" t="n">
-        <v>63.58621561702292</v>
+        <v>63.58621561702299</v>
       </c>
       <c r="G40" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="H40" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="I40" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="J40" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019875</v>
       </c>
       <c r="K40" t="n">
         <v>112.0590866322588</v>
@@ -7342,40 +7342,40 @@
         <v>396.797459867357</v>
       </c>
       <c r="N40" t="n">
-        <v>548.356610870043</v>
+        <v>548.3566108700431</v>
       </c>
       <c r="O40" t="n">
-        <v>677.427464058953</v>
+        <v>677.4274640589531</v>
       </c>
       <c r="P40" t="n">
-        <v>766.5857006714875</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="Q40" t="n">
-        <v>766.5857006714875</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="R40" t="n">
-        <v>766.5857006714875</v>
+        <v>766.5857006714878</v>
       </c>
       <c r="S40" t="n">
-        <v>669.0758770140421</v>
+        <v>715.1355612307967</v>
       </c>
       <c r="T40" t="n">
-        <v>595.2502010481771</v>
+        <v>641.3098852649316</v>
       </c>
       <c r="U40" t="n">
-        <v>466.4812798650319</v>
+        <v>512.5409640817862</v>
       </c>
       <c r="V40" t="n">
-        <v>364.1552425586572</v>
+        <v>364.1552425586576</v>
       </c>
       <c r="W40" t="n">
-        <v>236.4081082112589</v>
+        <v>236.4081082112593</v>
       </c>
       <c r="X40" t="n">
-        <v>163.5649112418374</v>
+        <v>163.5649112418376</v>
       </c>
       <c r="Y40" t="n">
-        <v>99.93901956931713</v>
+        <v>99.93901956931731</v>
       </c>
     </row>
     <row r="41">
@@ -7391,13 +7391,13 @@
         <v>1186.399656820292</v>
       </c>
       <c r="D41" t="n">
-        <v>971.9849591827181</v>
+        <v>971.9849591827183</v>
       </c>
       <c r="E41" t="n">
-        <v>735.6085064240276</v>
+        <v>735.6085064240278</v>
       </c>
       <c r="F41" t="n">
-        <v>479.8665828694008</v>
+        <v>479.8665828694009</v>
       </c>
       <c r="G41" t="n">
         <v>222.6644080120114</v>
@@ -7409,13 +7409,13 @@
         <v>53.29667265019875</v>
       </c>
       <c r="J41" t="n">
-        <v>166.2674185418009</v>
+        <v>166.2674185418011</v>
       </c>
       <c r="K41" t="n">
-        <v>467.8144998655655</v>
+        <v>467.8144998655657</v>
       </c>
       <c r="L41" t="n">
-        <v>891.8803257637576</v>
+        <v>891.8803257637579</v>
       </c>
       <c r="M41" t="n">
         <v>1369.88492417339</v>
@@ -7436,10 +7436,10 @@
         <v>2664.833632509938</v>
       </c>
       <c r="S41" t="n">
-        <v>2647.237783282021</v>
+        <v>2647.23778328202</v>
       </c>
       <c r="T41" t="n">
-        <v>2583.44421792996</v>
+        <v>2583.444217929959</v>
       </c>
       <c r="U41" t="n">
         <v>2487.007552343414</v>
@@ -7454,7 +7454,7 @@
         <v>1880.691009024058</v>
       </c>
       <c r="Y41" t="n">
-        <v>1645.558420735099</v>
+        <v>1645.558420735098</v>
       </c>
     </row>
     <row r="42">
@@ -7488,25 +7488,25 @@
         <v>53.29667265019875</v>
       </c>
       <c r="J42" t="n">
-        <v>53.29667265019875</v>
+        <v>137.9535817797792</v>
       </c>
       <c r="K42" t="n">
-        <v>181.8269866547947</v>
+        <v>409.1523424321824</v>
       </c>
       <c r="L42" t="n">
-        <v>603.7306647174621</v>
+        <v>831.0560204948499</v>
       </c>
       <c r="M42" t="n">
-        <v>1154.20887200413</v>
+        <v>1381.534227781518</v>
       </c>
       <c r="N42" t="n">
-        <v>1732.651502445915</v>
+        <v>1959.976858223303</v>
       </c>
       <c r="O42" t="n">
-        <v>2186.305269792479</v>
+        <v>1995.563118554409</v>
       </c>
       <c r="P42" t="n">
-        <v>2537.723294723684</v>
+        <v>2346.981143485614</v>
       </c>
       <c r="Q42" t="n">
         <v>2537.723294723684</v>
@@ -7543,19 +7543,19 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>74.79291802013998</v>
+        <v>74.79291802013992</v>
       </c>
       <c r="C43" t="n">
-        <v>63.58621561702294</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="D43" t="n">
-        <v>63.58621561702294</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="E43" t="n">
-        <v>63.58621561702294</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="F43" t="n">
-        <v>63.58621561702294</v>
+        <v>63.5862156170229</v>
       </c>
       <c r="G43" t="n">
         <v>53.29667265019875</v>
@@ -7594,25 +7594,25 @@
         <v>766.5857006714878</v>
       </c>
       <c r="S43" t="n">
-        <v>669.0758770140421</v>
+        <v>669.075877014042</v>
       </c>
       <c r="T43" t="n">
-        <v>595.2502010481771</v>
+        <v>595.250201048177</v>
       </c>
       <c r="U43" t="n">
-        <v>466.4812798650319</v>
+        <v>466.4812798650318</v>
       </c>
       <c r="V43" t="n">
-        <v>364.1552425586572</v>
+        <v>364.1552425586571</v>
       </c>
       <c r="W43" t="n">
-        <v>236.408108211259</v>
+        <v>236.4081082112588</v>
       </c>
       <c r="X43" t="n">
-        <v>163.5649112418374</v>
+        <v>163.5649112418373</v>
       </c>
       <c r="Y43" t="n">
-        <v>99.93901956931714</v>
+        <v>99.93901956931705</v>
       </c>
     </row>
     <row r="44">
@@ -7628,52 +7628,52 @@
         <v>1186.39965682029</v>
       </c>
       <c r="D44" t="n">
-        <v>971.984959182716</v>
+        <v>971.9849591827162</v>
       </c>
       <c r="E44" t="n">
-        <v>735.6085064240258</v>
+        <v>735.608506424026</v>
       </c>
       <c r="F44" t="n">
-        <v>479.8665828693993</v>
+        <v>479.8665828693992</v>
       </c>
       <c r="G44" t="n">
         <v>222.6644080120114</v>
       </c>
       <c r="H44" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019873</v>
       </c>
       <c r="I44" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019731</v>
       </c>
       <c r="J44" t="n">
-        <v>166.2674185418005</v>
+        <v>166.2674185417995</v>
       </c>
       <c r="K44" t="n">
-        <v>467.8144998655648</v>
+        <v>467.8144998655641</v>
       </c>
       <c r="L44" t="n">
-        <v>891.8803257637569</v>
+        <v>891.8803257637562</v>
       </c>
       <c r="M44" t="n">
         <v>1369.884924173389</v>
       </c>
       <c r="N44" t="n">
-        <v>1834.353308329473</v>
+        <v>1834.353308329472</v>
       </c>
       <c r="O44" t="n">
-        <v>2220.694643393615</v>
+        <v>2220.694643393614</v>
       </c>
       <c r="P44" t="n">
         <v>2518.270574687117</v>
       </c>
       <c r="Q44" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509936</v>
       </c>
       <c r="R44" t="n">
-        <v>2664.833632509937</v>
+        <v>2664.833632509936</v>
       </c>
       <c r="S44" t="n">
-        <v>2647.237783282019</v>
+        <v>2647.237783282018</v>
       </c>
       <c r="T44" t="n">
         <v>2583.444217929958</v>
@@ -7722,7 +7722,7 @@
         <v>112.6055089764783</v>
       </c>
       <c r="I45" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019873</v>
       </c>
       <c r="J45" t="n">
         <v>137.9535817797791</v>
@@ -7734,7 +7734,7 @@
         <v>831.0560204948498</v>
       </c>
       <c r="M45" t="n">
-        <v>1381.534227781518</v>
+        <v>963.4667207660596</v>
       </c>
       <c r="N45" t="n">
         <v>1541.909351207845</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>74.79291802013996</v>
+        <v>74.79291802013991</v>
       </c>
       <c r="C46" t="n">
-        <v>63.58621561702292</v>
+        <v>63.58621561702289</v>
       </c>
       <c r="D46" t="n">
-        <v>63.58621561702292</v>
+        <v>63.58621561702289</v>
       </c>
       <c r="E46" t="n">
-        <v>63.58621561702292</v>
+        <v>63.58621561702289</v>
       </c>
       <c r="F46" t="n">
-        <v>63.58621561702292</v>
+        <v>63.58621561702289</v>
       </c>
       <c r="G46" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019873</v>
       </c>
       <c r="H46" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019873</v>
       </c>
       <c r="I46" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019873</v>
       </c>
       <c r="J46" t="n">
-        <v>53.29667265019874</v>
+        <v>53.29667265019873</v>
       </c>
       <c r="K46" t="n">
         <v>112.0590866322588</v>
@@ -7831,25 +7831,25 @@
         <v>766.5857006714875</v>
       </c>
       <c r="S46" t="n">
-        <v>715.1355612307966</v>
+        <v>669.0758770140419</v>
       </c>
       <c r="T46" t="n">
-        <v>641.3098852649316</v>
+        <v>595.2502010481769</v>
       </c>
       <c r="U46" t="n">
-        <v>512.5409640817863</v>
+        <v>466.4812798650317</v>
       </c>
       <c r="V46" t="n">
-        <v>364.1552425586572</v>
+        <v>364.155242558657</v>
       </c>
       <c r="W46" t="n">
-        <v>236.4081082112589</v>
+        <v>236.4081082112588</v>
       </c>
       <c r="X46" t="n">
-        <v>163.5649112418374</v>
+        <v>163.5649112418373</v>
       </c>
       <c r="Y46" t="n">
-        <v>99.93901956931713</v>
+        <v>99.93901956931704</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>147.0997974279326</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K8" t="n">
-        <v>178.8230039740467</v>
+        <v>314.5524032714785</v>
       </c>
       <c r="L8" t="n">
-        <v>327.2896114605464</v>
+        <v>289.4230774940994</v>
       </c>
       <c r="M8" t="n">
         <v>322.8857137945909</v>
       </c>
       <c r="N8" t="n">
-        <v>322.1275134696619</v>
+        <v>186.3981141722301</v>
       </c>
       <c r="O8" t="n">
-        <v>317.2001799443227</v>
+        <v>186.9547967801205</v>
       </c>
       <c r="P8" t="n">
         <v>187.8768090511565</v>
       </c>
       <c r="Q8" t="n">
-        <v>180.6233730229902</v>
+        <v>276.0094878578761</v>
       </c>
       <c r="R8" t="n">
         <v>85.43134583487716</v>
@@ -8532,13 +8532,13 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K9" t="n">
-        <v>111.9961691666667</v>
+        <v>247.7255684640984</v>
       </c>
       <c r="L9" t="n">
         <v>248.3048328685796</v>
       </c>
       <c r="M9" t="n">
-        <v>115.4839025616399</v>
+        <v>184.8665114499772</v>
       </c>
       <c r="N9" t="n">
         <v>106.7151410677083</v>
@@ -8547,10 +8547,10 @@
         <v>251.5888479085429</v>
       </c>
       <c r="P9" t="n">
-        <v>244.5836053215751</v>
+        <v>108.8542060241433</v>
       </c>
       <c r="Q9" t="n">
-        <v>183.1178003332298</v>
+        <v>113.7351914448925</v>
       </c>
       <c r="R9" t="n">
         <v>59.17817075471706</v>
@@ -8778,16 +8778,16 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N12" t="n">
-        <v>479.0355445781273</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O12" t="n">
-        <v>512.0210150597484</v>
+        <v>175.2426333568418</v>
       </c>
       <c r="P12" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q12" t="n">
-        <v>80.4316344221894</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R12" t="n">
         <v>59.17817075471706</v>
@@ -8933,7 +8933,7 @@
         <v>542.9595789155856</v>
       </c>
       <c r="M14" t="n">
-        <v>584.3675935406818</v>
+        <v>584.3675935406823</v>
       </c>
       <c r="N14" t="n">
         <v>568.5510017355793</v>
@@ -9003,7 +9003,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J15" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871288</v>
       </c>
       <c r="K15" t="n">
         <v>343.8048081163522</v>
@@ -9015,10 +9015,10 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N15" t="n">
-        <v>200.8546755198943</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O15" t="n">
-        <v>512.0210150597484</v>
+        <v>175.2426333568418</v>
       </c>
       <c r="P15" t="n">
         <v>414.0015992319183</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>219.8255997236959</v>
+        <v>219.8255997236957</v>
       </c>
       <c r="K17" t="n">
         <v>421.3890363425141</v>
@@ -9240,7 +9240,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J18" t="n">
-        <v>96.59563676651879</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K18" t="n">
         <v>343.8048081163522</v>
@@ -9249,7 +9249,7 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M18" t="n">
-        <v>605.4165828749999</v>
+        <v>183.1261717482747</v>
       </c>
       <c r="N18" t="n">
         <v>623.1450866466196</v>
@@ -9258,7 +9258,7 @@
         <v>512.0210150597484</v>
       </c>
       <c r="P18" t="n">
-        <v>59.03389728120602</v>
+        <v>414.0015992319183</v>
       </c>
       <c r="Q18" t="n">
         <v>273.1004740566038</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>219.8255997236954</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K20" t="n">
         <v>421.3890363425141</v>
@@ -9480,7 +9480,7 @@
         <v>163.9183459425315</v>
       </c>
       <c r="K21" t="n">
-        <v>69.86666604321766</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L21" t="n">
         <v>482.0924488944969</v>
@@ -9489,7 +9489,7 @@
         <v>605.4165828749999</v>
       </c>
       <c r="N21" t="n">
-        <v>474.7928175930289</v>
+        <v>200.8546755198943</v>
       </c>
       <c r="O21" t="n">
         <v>512.0210150597484</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>219.8255997236967</v>
+        <v>219.8255997236959</v>
       </c>
       <c r="K23" t="n">
         <v>421.3890363425141</v>
@@ -9951,16 +9951,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J27" t="n">
-        <v>78.40631651871288</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K27" t="n">
-        <v>199.6952660478599</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L27" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M27" t="n">
-        <v>605.4165828749999</v>
+        <v>183.1261717482748</v>
       </c>
       <c r="N27" t="n">
         <v>623.1450866466196</v>
@@ -9972,7 +9972,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q27" t="n">
-        <v>80.4316344221894</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R27" t="n">
         <v>59.17817075471706</v>
@@ -10188,7 +10188,7 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J30" t="n">
-        <v>78.40631651871288</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K30" t="n">
         <v>343.8048081163522</v>
@@ -10197,19 +10197,19 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M30" t="n">
-        <v>605.4165828749999</v>
+        <v>183.1261717482748</v>
       </c>
       <c r="N30" t="n">
         <v>623.1450866466196</v>
       </c>
       <c r="O30" t="n">
-        <v>367.9114729912559</v>
+        <v>512.0210150597484</v>
       </c>
       <c r="P30" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q30" t="n">
-        <v>80.4316344221894</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R30" t="n">
         <v>59.17817075471706</v>
@@ -10425,16 +10425,16 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J33" t="n">
-        <v>78.40631651871288</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K33" t="n">
-        <v>199.6952660478601</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L33" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M33" t="n">
-        <v>605.4165828749999</v>
+        <v>183.126171748275</v>
       </c>
       <c r="N33" t="n">
         <v>623.1450866466196</v>
@@ -10446,7 +10446,7 @@
         <v>414.0015992319183</v>
       </c>
       <c r="Q33" t="n">
-        <v>80.4316344221894</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R33" t="n">
         <v>59.17817075471706</v>
@@ -10899,19 +10899,19 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J39" t="n">
-        <v>163.9183459425315</v>
+        <v>78.40631651871288</v>
       </c>
       <c r="K39" t="n">
-        <v>343.8048081163522</v>
+        <v>69.86666604321766</v>
       </c>
       <c r="L39" t="n">
         <v>482.0924488944969</v>
       </c>
       <c r="M39" t="n">
-        <v>605.4165828749999</v>
+        <v>542.576343245228</v>
       </c>
       <c r="N39" t="n">
-        <v>200.8546755198943</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O39" t="n">
         <v>512.0210150597484</v>
@@ -11136,10 +11136,10 @@
         <v>13.1634712931604</v>
       </c>
       <c r="J42" t="n">
-        <v>78.40631651871288</v>
+        <v>163.9183459425315</v>
       </c>
       <c r="K42" t="n">
-        <v>199.69526604786</v>
+        <v>343.8048081163522</v>
       </c>
       <c r="L42" t="n">
         <v>482.0924488944969</v>
@@ -11151,13 +11151,13 @@
         <v>623.1450866466196</v>
       </c>
       <c r="O42" t="n">
-        <v>512.0210150597484</v>
+        <v>89.7306039330231</v>
       </c>
       <c r="P42" t="n">
         <v>414.0015992319183</v>
       </c>
       <c r="Q42" t="n">
-        <v>80.4316344221894</v>
+        <v>273.1004740566038</v>
       </c>
       <c r="R42" t="n">
         <v>59.17817075471706</v>
@@ -11382,10 +11382,10 @@
         <v>482.0924488944969</v>
       </c>
       <c r="M45" t="n">
-        <v>605.4165828749999</v>
+        <v>183.1261717482749</v>
       </c>
       <c r="N45" t="n">
-        <v>200.8546755198943</v>
+        <v>623.1450866466196</v>
       </c>
       <c r="O45" t="n">
         <v>512.0210150597484</v>
@@ -23258,13 +23258,13 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>294.929745385992</v>
+        <v>40.43343066673711</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>285.9110494305201</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>307.6531870004256</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>69.10541545958796</v>
+        <v>69.105415459588</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>73.0913981017171</v>
+        <v>91.06038950496074</v>
       </c>
       <c r="T11" t="n">
-        <v>136.7961284678622</v>
+        <v>136.7961284678623</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>169.1127977000022</v>
       </c>
       <c r="V11" t="n">
-        <v>250.4248056684894</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>275.7249051464463</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,22 +23413,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>98.53513930300736</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>11.80463948391044</v>
       </c>
       <c r="D13" t="n">
-        <v>68.35649854598623</v>
+        <v>68.35649854598628</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>67.30424840176573</v>
       </c>
       <c r="F13" t="n">
-        <v>67.77117272995199</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>83.82714630647791</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,10 +23470,10 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>201.1217307406359</v>
       </c>
       <c r="V13" t="n">
-        <v>166.7272918119901</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>136.6301315251171</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>306.9184284283103</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,16 +23504,16 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>326.8250030884027</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>241.3145567775165</v>
       </c>
       <c r="I14" t="n">
-        <v>69.10541545958796</v>
+        <v>69.105415459588</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>121.4986461073483</v>
+        <v>94.38991747805237</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>169.1127977000022</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>250.4248056684895</v>
       </c>
       <c r="W14" t="n">
-        <v>275.7249051464463</v>
+        <v>275.7249051464464</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>98.53513930300736</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>84.73513414840784</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>68.35649854598623</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>67.30424840176568</v>
+        <v>67.30424840176573</v>
       </c>
       <c r="F16" t="n">
-        <v>67.77117272995199</v>
+        <v>37.20810259207198</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>72.64954213184632</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>25.86551343644848</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,16 +23698,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>55.00703014733521</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>124.576136815606</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>201.1217307406358</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -26311,7 +26311,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>191469.1578768261</v>
+        <v>191469.157876826</v>
       </c>
       <c r="C2" t="n">
         <v>191469.1578768261</v>
@@ -26332,7 +26332,7 @@
         <v>191906.0151235454</v>
       </c>
       <c r="I2" t="n">
-        <v>191906.0151235455</v>
+        <v>191906.0151235454</v>
       </c>
       <c r="J2" t="n">
         <v>191906.0151235457</v>
@@ -26341,16 +26341,16 @@
         <v>191906.0151235457</v>
       </c>
       <c r="L2" t="n">
-        <v>191906.0151235451</v>
+        <v>191906.0151235455</v>
       </c>
       <c r="M2" t="n">
         <v>191906.0151235454</v>
       </c>
       <c r="N2" t="n">
+        <v>191906.0151235455</v>
+      </c>
+      <c r="O2" t="n">
         <v>191906.0151235454</v>
-      </c>
-      <c r="O2" t="n">
-        <v>191906.0151235455</v>
       </c>
       <c r="P2" t="n">
         <v>191906.0151235454</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>58912.39901545757</v>
+        <v>58912.39901545759</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>77501.85774473399</v>
+        <v>77501.85774473398</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>87005.12716444269</v>
+        <v>87005.12716444282</v>
       </c>
       <c r="M3" t="n">
-        <v>129522.6626819163</v>
+        <v>129522.6626819162</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>23917.25317727199</v>
+        <v>23917.25317727202</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>362257.2597934403</v>
       </c>
       <c r="E4" t="n">
-        <v>210799.9012866808</v>
+        <v>210799.9012866807</v>
       </c>
       <c r="F4" t="n">
-        <v>210799.9012866808</v>
+        <v>210799.9012866807</v>
       </c>
       <c r="G4" t="n">
         <v>267240.5926786488</v>
@@ -26445,7 +26445,7 @@
         <v>268306.5012814332</v>
       </c>
       <c r="L4" t="n">
-        <v>267580.443413222</v>
+        <v>267580.4434132221</v>
       </c>
       <c r="M4" t="n">
         <v>267240.5926786488</v>
@@ -26485,10 +26485,10 @@
         <v>56333.84332237235</v>
       </c>
       <c r="H5" t="n">
-        <v>56333.84332237234</v>
+        <v>56333.84332237235</v>
       </c>
       <c r="I5" t="n">
-        <v>56333.84332237236</v>
+        <v>56333.84332237235</v>
       </c>
       <c r="J5" t="n">
         <v>64305.78513671567</v>
@@ -26497,7 +26497,7 @@
         <v>64305.78513671567</v>
       </c>
       <c r="L5" t="n">
-        <v>59005.5971128781</v>
+        <v>59005.59711287812</v>
       </c>
       <c r="M5" t="n">
         <v>56333.84332237234</v>
@@ -26506,7 +26506,7 @@
         <v>56333.84332237234</v>
       </c>
       <c r="O5" t="n">
-        <v>56333.84332237235</v>
+        <v>56333.84332237236</v>
       </c>
       <c r="P5" t="n">
         <v>56333.84332237234</v>
@@ -26519,22 +26519,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-225616.8524951149</v>
+        <v>-225621.2210675821</v>
       </c>
       <c r="C6" t="n">
-        <v>-225616.8524951149</v>
+        <v>-225621.2210675821</v>
       </c>
       <c r="D6" t="n">
         <v>-254392.81545094</v>
       </c>
       <c r="E6" t="n">
-        <v>-416225.662841688</v>
+        <v>-416473.6902838575</v>
       </c>
       <c r="F6" t="n">
-        <v>-93839.59061143264</v>
+        <v>-94087.61805360219</v>
       </c>
       <c r="G6" t="n">
-        <v>-190580.8198929334</v>
+        <v>-190580.8198929333</v>
       </c>
       <c r="H6" t="n">
         <v>-131668.4208774757</v>
@@ -26549,19 +26549,19 @@
         <v>-140706.2712946031</v>
       </c>
       <c r="L6" t="n">
-        <v>-221685.1525669977</v>
+        <v>-221685.1525669976</v>
       </c>
       <c r="M6" t="n">
-        <v>-261191.0835593921</v>
+        <v>-261191.0835593919</v>
       </c>
       <c r="N6" t="n">
-        <v>-131668.4208774758</v>
+        <v>-131668.4208774756</v>
       </c>
       <c r="O6" t="n">
-        <v>-155585.6740547476</v>
+        <v>-155585.6740547478</v>
       </c>
       <c r="P6" t="n">
-        <v>-131668.4208774758</v>
+        <v>-131668.4208774757</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F2" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G2" t="n">
         <v>156.8251744638506</v>
@@ -26713,7 +26713,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="L2" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="M2" t="n">
         <v>156.8251744638506</v>
@@ -26722,10 +26722,10 @@
         <v>156.8251744638506</v>
       </c>
       <c r="O2" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="P2" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="3">
@@ -26796,40 +26796,40 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>666.2084081274843</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="F4" t="n">
-        <v>666.2084081274843</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="G4" t="n">
-        <v>666.2084081274843</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="H4" t="n">
-        <v>666.2084081274843</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="I4" t="n">
-        <v>666.2084081274846</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="J4" t="n">
+        <v>871.0080770190394</v>
+      </c>
+      <c r="K4" t="n">
         <v>871.0080770190395</v>
       </c>
-      <c r="K4" t="n">
-        <v>871.0080770190394</v>
-      </c>
       <c r="L4" t="n">
-        <v>735.2786777216077</v>
+        <v>735.2786777216078</v>
       </c>
       <c r="M4" t="n">
-        <v>666.2084081274842</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="N4" t="n">
-        <v>666.2084081274842</v>
+        <v>666.2084081274844</v>
       </c>
       <c r="O4" t="n">
         <v>666.2084081274844</v>
       </c>
       <c r="P4" t="n">
-        <v>666.2084081274842</v>
+        <v>666.2084081274841</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>73.64049876932197</v>
+        <v>73.64049876932199</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.89656647158999</v>
+        <v>29.89656647158994</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>108.7564089555534</v>
+        <v>108.7564089555535</v>
       </c>
       <c r="M2" t="n">
-        <v>18.1721990367073</v>
+        <v>18.17219903670713</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.89656647158999</v>
+        <v>29.89656647159002</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="E4" t="n">
-        <v>530.4790088300525</v>
+        <v>530.4790088300526</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>204.7996688915549</v>
+        <v>204.799668891555</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>461.408739235929</v>
+        <v>461.4087392359293</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>73.64049876932197</v>
+        <v>73.64049876932199</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.89656647158999</v>
+        <v>29.89656647158994</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>135.7293992974318</v>
       </c>
       <c r="M4" t="n">
-        <v>530.4790088300525</v>
+        <v>530.4790088300526</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>254.3737048254072</v>
+        <v>390.1031041228389</v>
       </c>
       <c r="C8" t="n">
         <v>378.1144210805207</v>
@@ -27859,13 +27859,13 @@
         <v>369.0957251250487</v>
       </c>
       <c r="E8" t="n">
-        <v>255.1084633975224</v>
+        <v>390.8378626949542</v>
       </c>
       <c r="F8" t="n">
-        <v>380.1911275208586</v>
+        <v>274.2802794854996</v>
       </c>
       <c r="G8" t="n">
-        <v>276.2135473829221</v>
+        <v>382.1243954182812</v>
       </c>
       <c r="H8" t="n">
         <v>329.4930616586638</v>
@@ -27913,10 +27913,10 @@
         <v>333.6094813630181</v>
       </c>
       <c r="W8" t="n">
-        <v>358.909580840975</v>
+        <v>223.1801815435432</v>
       </c>
       <c r="X8" t="n">
-        <v>378.2098390737216</v>
+        <v>242.4804397762898</v>
       </c>
       <c r="Y8" t="n">
         <v>389.6064368699203</v>
@@ -27938,19 +27938,19 @@
         <v>137.45025063969</v>
       </c>
       <c r="E9" t="n">
-        <v>145.5577298436975</v>
+        <v>105.4305196484091</v>
       </c>
       <c r="F9" t="n">
-        <v>133.3468600696244</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>127.4412149769483</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>98.93847887876893</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>67.69846245683961</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27980,16 +27980,16 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>90.90746343221284</v>
+        <v>151.2714921173871</v>
       </c>
       <c r="T9" t="n">
-        <v>51.06885349824287</v>
+        <v>186.7982527956746</v>
       </c>
       <c r="U9" t="n">
-        <v>80.58044518024116</v>
+        <v>216.3098444776729</v>
       </c>
       <c r="V9" t="n">
-        <v>90.38226702871759</v>
+        <v>226.1116663261494</v>
       </c>
       <c r="W9" t="n">
         <v>238.9027100790231</v>
@@ -28011,28 +28011,28 @@
         <v>181.719814997536</v>
       </c>
       <c r="C10" t="n">
-        <v>167.9198098429365</v>
+        <v>107.8260211417278</v>
       </c>
       <c r="D10" t="n">
         <v>151.5411742405149</v>
       </c>
       <c r="E10" t="n">
-        <v>150.4889240962943</v>
+        <v>14.75952479886257</v>
       </c>
       <c r="F10" t="n">
-        <v>150.9558484244806</v>
+        <v>15.22644912704888</v>
       </c>
       <c r="G10" t="n">
         <v>167.2305511458285</v>
       </c>
       <c r="H10" t="n">
-        <v>157.7789187685189</v>
+        <v>22.04951947108714</v>
       </c>
       <c r="I10" t="n">
         <v>142.7610139533483</v>
       </c>
       <c r="J10" t="n">
-        <v>59.456666199969</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>38.15196793284785</v>
       </c>
       <c r="R10" t="n">
-        <v>12.2971642743338</v>
+        <v>148.0265635717656</v>
       </c>
       <c r="S10" t="n">
-        <v>75.84326567291754</v>
+        <v>211.5726649703493</v>
       </c>
       <c r="T10" t="n">
-        <v>95.11776435504618</v>
+        <v>230.8471636524779</v>
       </c>
       <c r="U10" t="n">
-        <v>202.9198501474612</v>
+        <v>284.3183371157911</v>
       </c>
       <c r="V10" t="n">
         <v>258.1279513971616</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="C11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="D11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="E11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="H11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="I11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>59.10149986574393</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="T11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="U11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="V11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="W11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="X11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Y11" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="C13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="D13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="E13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="H13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="I13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="J13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="K13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="L13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="M13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="N13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="O13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="P13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Q13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="R13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="S13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="T13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="U13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="V13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="W13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="X13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Y13" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="C14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="D14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="E14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="H14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="I14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28372,28 +28372,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>59.10149986574393</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="T14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="U14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="V14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="W14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="X14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Y14" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="C16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="D16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="E16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="F16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="G16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="H16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="I16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="J16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="K16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="L16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="M16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="N16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="O16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="P16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Q16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="R16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="S16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="T16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="U16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="V16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="W16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="X16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
       <c r="Y16" t="n">
-        <v>83.18467569452866</v>
+        <v>83.18467569452861</v>
       </c>
     </row>
     <row r="17">
@@ -28609,7 +28609,7 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>59.10149986574393</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S17" t="n">
         <v>156.8251744638506</v>
@@ -28743,7 +28743,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J19" t="n">
-        <v>43.99251566105961</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28764,13 +28764,13 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>19.83638472416913</v>
+        <v>19.83638472416911</v>
       </c>
       <c r="R19" t="n">
-        <v>138.1917058418638</v>
+        <v>136.5851341283367</v>
       </c>
       <c r="S19" t="n">
-        <v>111.2260870892637</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T19" t="n">
         <v>156.8251744638506</v>
@@ -28846,7 +28846,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>59.10149986574393</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S20" t="n">
         <v>156.8251744638506</v>
@@ -28980,7 +28980,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J22" t="n">
-        <v>43.99251566105961</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -29001,13 +29001,13 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>19.83638472416913</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S22" t="n">
-        <v>111.2260870892642</v>
+        <v>131.0624718134331</v>
       </c>
       <c r="T22" t="n">
         <v>156.8251744638506</v>
@@ -29083,7 +29083,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.10149986574393</v>
+        <v>59.10149986574392</v>
       </c>
       <c r="S23" t="n">
         <v>156.8251744638506</v>
@@ -29217,7 +29217,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J25" t="n">
-        <v>43.99251566105961</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29238,13 +29238,13 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>19.83638472416913</v>
+        <v>19.83638472416912</v>
       </c>
       <c r="R25" t="n">
         <v>138.1917058418638</v>
       </c>
       <c r="S25" t="n">
-        <v>156.8251744638506</v>
+        <v>111.2260870892639</v>
       </c>
       <c r="T25" t="n">
         <v>156.8251744638506</v>
@@ -29253,7 +29253,7 @@
         <v>156.8251744638506</v>
       </c>
       <c r="V25" t="n">
-        <v>111.226087089264</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="W25" t="n">
         <v>156.8251744638506</v>
@@ -29314,10 +29314,10 @@
         <v>103.5370652409119</v>
       </c>
       <c r="P26" t="n">
-        <v>41.7289194080405</v>
+        <v>103.5370652409119</v>
       </c>
       <c r="Q26" t="n">
-        <v>103.5370652409119</v>
+        <v>41.72891940804024</v>
       </c>
       <c r="R26" t="n">
         <v>103.5370652409119</v>
@@ -29460,7 +29460,7 @@
         <v>103.5370652409119</v>
       </c>
       <c r="L28" t="n">
-        <v>103.5370652409116</v>
+        <v>103.5370652409119</v>
       </c>
       <c r="M28" t="n">
         <v>103.5370652409119</v>
@@ -29536,13 +29536,13 @@
         <v>103.5370652409119</v>
       </c>
       <c r="K29" t="n">
-        <v>41.72891940804021</v>
+        <v>103.5370652409119</v>
       </c>
       <c r="L29" t="n">
         <v>103.5370652409119</v>
       </c>
       <c r="M29" t="n">
-        <v>103.5370652409119</v>
+        <v>41.72891940804061</v>
       </c>
       <c r="N29" t="n">
         <v>103.5370652409119</v>
@@ -29746,43 +29746,43 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="C32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="D32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="E32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="F32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="G32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="H32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="I32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>55.28590942455162</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>55.28590942455139</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>138.6529754271433</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="S32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="T32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="U32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="V32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="W32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="X32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="Y32" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
     </row>
     <row r="33">
@@ -29904,34 +29904,34 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="C34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="D34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="E34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="F34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="G34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="H34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="I34" t="n">
         <v>136.1832320345219</v>
       </c>
       <c r="J34" t="n">
-        <v>138.6529754271433</v>
+        <v>99.53519972945361</v>
       </c>
       <c r="K34" t="n">
-        <v>99.5351997294552</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
@@ -29943,7 +29943,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -29955,25 +29955,25 @@
         <v>138.1917058418638</v>
       </c>
       <c r="S34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="T34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="U34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="V34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="W34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="X34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
       <c r="Y34" t="n">
-        <v>138.6529754271433</v>
+        <v>138.6529754271434</v>
       </c>
     </row>
     <row r="35">
@@ -30159,13 +30159,13 @@
         <v>156.8251744638506</v>
       </c>
       <c r="H37" t="n">
-        <v>155.834217826375</v>
+        <v>110.2351304517886</v>
       </c>
       <c r="I37" t="n">
         <v>136.1832320345219</v>
       </c>
       <c r="J37" t="n">
-        <v>43.99251566105961</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -30195,7 +30195,7 @@
         <v>156.8251744638506</v>
       </c>
       <c r="T37" t="n">
-        <v>111.2260870892638</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="U37" t="n">
         <v>156.8251744638506</v>
@@ -30402,7 +30402,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J40" t="n">
-        <v>43.99251566105961</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -30429,7 +30429,7 @@
         <v>138.1917058418638</v>
       </c>
       <c r="S40" t="n">
-        <v>111.2260870892637</v>
+        <v>156.8251744638506</v>
       </c>
       <c r="T40" t="n">
         <v>156.8251744638506</v>
@@ -30438,7 +30438,7 @@
         <v>156.8251744638506</v>
       </c>
       <c r="V40" t="n">
-        <v>156.8251744638506</v>
+        <v>111.2260870892642</v>
       </c>
       <c r="W40" t="n">
         <v>156.8251744638506</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I41" t="n">
         <v>152.2900911541166</v>
@@ -30508,25 +30508,25 @@
         <v>59.10149986574393</v>
       </c>
       <c r="S41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y41" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="42">
@@ -30615,10 +30615,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D43" t="n">
         <v>151.5411742405149</v>
@@ -30630,7 +30630,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H43" t="n">
         <v>155.834217826375</v>
@@ -30639,7 +30639,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J43" t="n">
-        <v>43.99251566105961</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -30666,25 +30666,25 @@
         <v>138.1917058418638</v>
       </c>
       <c r="S43" t="n">
-        <v>111.2260870892635</v>
+        <v>111.2260870892634</v>
       </c>
       <c r="T43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y43" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="E44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="F44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="G44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="I44" t="n">
-        <v>152.2900911541166</v>
+        <v>152.2900911541152</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>59.10149986574393</v>
       </c>
       <c r="S44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="T44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y44" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
     <row r="45">
@@ -30852,10 +30852,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="C46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="D46" t="n">
         <v>151.5411742405149</v>
@@ -30867,7 +30867,7 @@
         <v>150.9558484244806</v>
       </c>
       <c r="G46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="H46" t="n">
         <v>155.834217826375</v>
@@ -30876,7 +30876,7 @@
         <v>136.1832320345219</v>
       </c>
       <c r="J46" t="n">
-        <v>43.99251566105961</v>
+        <v>43.9925156610596</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -30903,25 +30903,25 @@
         <v>138.1917058418638</v>
       </c>
       <c r="S46" t="n">
-        <v>156.8251744638506</v>
+        <v>111.2260870892635</v>
       </c>
       <c r="T46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="U46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="V46" t="n">
-        <v>111.2260870892637</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="W46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="X46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
       <c r="Y46" t="n">
-        <v>156.8251744638506</v>
+        <v>156.8251744638507</v>
       </c>
     </row>
   </sheetData>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.4876191076888742</v>
       </c>
       <c r="H11" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618684</v>
       </c>
       <c r="I11" t="n">
-        <v>18.79893564917533</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J11" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120862</v>
       </c>
       <c r="K11" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L11" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M11" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N11" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269511</v>
       </c>
       <c r="O11" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061386</v>
       </c>
       <c r="P11" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954477</v>
       </c>
       <c r="Q11" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543695</v>
       </c>
       <c r="R11" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S11" t="n">
-        <v>11.11162041646022</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T11" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U11" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2608992235148538</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H12" t="n">
-        <v>2.519737237630299</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I12" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822824</v>
       </c>
       <c r="J12" t="n">
-        <v>24.6492551479538</v>
+        <v>24.64925514795382</v>
       </c>
       <c r="K12" t="n">
-        <v>42.12950312344901</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L12" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308266</v>
       </c>
       <c r="M12" t="n">
-        <v>66.10591290549606</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N12" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582161</v>
       </c>
       <c r="O12" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425563</v>
       </c>
       <c r="P12" t="n">
-        <v>49.82030874293731</v>
+        <v>49.82030874293734</v>
       </c>
       <c r="Q12" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270312</v>
       </c>
       <c r="R12" t="n">
-        <v>16.19863775472049</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S12" t="n">
-        <v>4.846088647304408</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T12" t="n">
-        <v>1.051606957939257</v>
+        <v>1.051606957939258</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01716442259966144</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.2187291448219151</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H13" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I13" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826325</v>
       </c>
       <c r="J13" t="n">
         <v>15.4641505389094</v>
       </c>
       <c r="K13" t="n">
-        <v>25.41234973476431</v>
+        <v>25.41234973476433</v>
       </c>
       <c r="L13" t="n">
-        <v>32.51905849470545</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M13" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422076</v>
       </c>
       <c r="N13" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O13" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P13" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q13" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867874</v>
       </c>
       <c r="R13" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901749</v>
       </c>
       <c r="S13" t="n">
-        <v>3.811852460214646</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T13" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209102</v>
       </c>
       <c r="U13" t="n">
         <v>0.01193068062664993</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.4876191076888742</v>
       </c>
       <c r="H14" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618684</v>
       </c>
       <c r="I14" t="n">
-        <v>18.79893564917533</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J14" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120862</v>
       </c>
       <c r="K14" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L14" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M14" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N14" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269511</v>
       </c>
       <c r="O14" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061386</v>
       </c>
       <c r="P14" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954477</v>
       </c>
       <c r="Q14" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543695</v>
       </c>
       <c r="R14" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S14" t="n">
-        <v>11.11162041646022</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T14" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U14" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2608992235148538</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H15" t="n">
-        <v>2.519737237630299</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I15" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822824</v>
       </c>
       <c r="J15" t="n">
-        <v>24.6492551479538</v>
+        <v>24.64925514795382</v>
       </c>
       <c r="K15" t="n">
-        <v>42.12950312344901</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L15" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308266</v>
       </c>
       <c r="M15" t="n">
-        <v>66.10591290549606</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N15" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582161</v>
       </c>
       <c r="O15" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425563</v>
       </c>
       <c r="P15" t="n">
-        <v>49.82030874293731</v>
+        <v>49.82030874293734</v>
       </c>
       <c r="Q15" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270312</v>
       </c>
       <c r="R15" t="n">
-        <v>16.19863775472049</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S15" t="n">
-        <v>4.846088647304408</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T15" t="n">
-        <v>1.051606957939257</v>
+        <v>1.051606957939258</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01716442259966144</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,46 +32145,46 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.2187291448219151</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H16" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I16" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826325</v>
       </c>
       <c r="J16" t="n">
         <v>15.4641505389094</v>
       </c>
       <c r="K16" t="n">
-        <v>25.41234973476431</v>
+        <v>25.41234973476433</v>
       </c>
       <c r="L16" t="n">
-        <v>32.51905849470545</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M16" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422076</v>
       </c>
       <c r="N16" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O16" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P16" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q16" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867874</v>
       </c>
       <c r="R16" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901749</v>
       </c>
       <c r="S16" t="n">
-        <v>3.811852460214646</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T16" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209102</v>
       </c>
       <c r="U16" t="n">
         <v>0.01193068062664993</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.4876191076888742</v>
       </c>
       <c r="H17" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618684</v>
       </c>
       <c r="I17" t="n">
-        <v>18.79893564917533</v>
+        <v>18.79893564917534</v>
       </c>
       <c r="J17" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120862</v>
       </c>
       <c r="K17" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967867</v>
       </c>
       <c r="L17" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661207</v>
       </c>
       <c r="M17" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297408</v>
       </c>
       <c r="N17" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269511</v>
       </c>
       <c r="O17" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061386</v>
       </c>
       <c r="P17" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954477</v>
       </c>
       <c r="Q17" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543695</v>
       </c>
       <c r="R17" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336127</v>
       </c>
       <c r="S17" t="n">
-        <v>11.11162041646022</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T17" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908048</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2608992235148538</v>
+        <v>0.260899223514854</v>
       </c>
       <c r="H18" t="n">
-        <v>2.519737237630299</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I18" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822824</v>
       </c>
       <c r="J18" t="n">
-        <v>24.6492551479538</v>
+        <v>24.64925514795382</v>
       </c>
       <c r="K18" t="n">
-        <v>42.12950312344901</v>
+        <v>42.12950312344903</v>
       </c>
       <c r="L18" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308266</v>
       </c>
       <c r="M18" t="n">
-        <v>66.10591290549606</v>
+        <v>66.1059129054961</v>
       </c>
       <c r="N18" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582161</v>
       </c>
       <c r="O18" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425563</v>
       </c>
       <c r="P18" t="n">
-        <v>49.82030874293731</v>
+        <v>49.82030874293734</v>
       </c>
       <c r="Q18" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270312</v>
       </c>
       <c r="R18" t="n">
-        <v>16.19863775472049</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S18" t="n">
-        <v>4.846088647304408</v>
+        <v>4.846088647304411</v>
       </c>
       <c r="T18" t="n">
-        <v>1.051606957939257</v>
+        <v>1.051606957939258</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01716442259966144</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,46 +32382,46 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2187291448219151</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H19" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143939</v>
       </c>
       <c r="I19" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826325</v>
       </c>
       <c r="J19" t="n">
         <v>15.4641505389094</v>
       </c>
       <c r="K19" t="n">
-        <v>25.41234973476431</v>
+        <v>25.41234973476433</v>
       </c>
       <c r="L19" t="n">
-        <v>32.51905849470545</v>
+        <v>32.51905849470547</v>
       </c>
       <c r="M19" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422076</v>
       </c>
       <c r="N19" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O19" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719217</v>
       </c>
       <c r="P19" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282508</v>
       </c>
       <c r="Q19" t="n">
-        <v>18.31558320867873</v>
+        <v>18.31558320867874</v>
       </c>
       <c r="R19" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901749</v>
       </c>
       <c r="S19" t="n">
-        <v>3.811852460214646</v>
+        <v>3.811852460214648</v>
       </c>
       <c r="T19" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209102</v>
       </c>
       <c r="U19" t="n">
         <v>0.01193068062664993</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.487619107688874</v>
       </c>
       <c r="H20" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618682</v>
       </c>
       <c r="I20" t="n">
         <v>18.79893564917533</v>
       </c>
       <c r="J20" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K20" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967866</v>
       </c>
       <c r="L20" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661206</v>
       </c>
       <c r="M20" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297407</v>
       </c>
       <c r="N20" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O20" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061384</v>
       </c>
       <c r="P20" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q20" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543693</v>
       </c>
       <c r="R20" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S20" t="n">
-        <v>11.11162041646022</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T20" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2608992235148538</v>
+        <v>0.2608992235148539</v>
       </c>
       <c r="H21" t="n">
-        <v>2.519737237630299</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I21" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J21" t="n">
-        <v>24.6492551479538</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K21" t="n">
-        <v>42.12950312344901</v>
+        <v>42.12950312344902</v>
       </c>
       <c r="L21" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M21" t="n">
-        <v>66.10591290549606</v>
+        <v>66.10591290549608</v>
       </c>
       <c r="N21" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O21" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425561</v>
       </c>
       <c r="P21" t="n">
-        <v>49.82030874293731</v>
+        <v>49.82030874293732</v>
       </c>
       <c r="Q21" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R21" t="n">
-        <v>16.19863775472049</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S21" t="n">
-        <v>4.846088647304408</v>
+        <v>4.84608864730441</v>
       </c>
       <c r="T21" t="n">
         <v>1.051606957939257</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01716442259966144</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,46 +32619,46 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2187291448219151</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H22" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I22" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826323</v>
       </c>
       <c r="J22" t="n">
         <v>15.4641505389094</v>
       </c>
       <c r="K22" t="n">
-        <v>25.41234973476431</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L22" t="n">
-        <v>32.51905849470545</v>
+        <v>32.51905849470546</v>
       </c>
       <c r="M22" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N22" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O22" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P22" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q22" t="n">
         <v>18.31558320867873</v>
       </c>
       <c r="R22" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901746</v>
       </c>
       <c r="S22" t="n">
-        <v>3.811852460214646</v>
+        <v>3.811852460214647</v>
       </c>
       <c r="T22" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209099</v>
       </c>
       <c r="U22" t="n">
         <v>0.01193068062664993</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.487619107688874</v>
       </c>
       <c r="H23" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618682</v>
       </c>
       <c r="I23" t="n">
         <v>18.79893564917533</v>
       </c>
       <c r="J23" t="n">
-        <v>41.3860622412086</v>
+        <v>41.38606224120861</v>
       </c>
       <c r="K23" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967866</v>
       </c>
       <c r="L23" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661206</v>
       </c>
       <c r="M23" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297407</v>
       </c>
       <c r="N23" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269509</v>
       </c>
       <c r="O23" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061384</v>
       </c>
       <c r="P23" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954475</v>
       </c>
       <c r="Q23" t="n">
-        <v>52.65737791543692</v>
+        <v>52.65737791543693</v>
       </c>
       <c r="R23" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S23" t="n">
-        <v>11.11162041646022</v>
+        <v>11.11162041646023</v>
       </c>
       <c r="T23" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U23" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510992</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2608992235148538</v>
+        <v>0.2608992235148539</v>
       </c>
       <c r="H24" t="n">
-        <v>2.519737237630299</v>
+        <v>2.5197372376303</v>
       </c>
       <c r="I24" t="n">
-        <v>8.982714493822819</v>
+        <v>8.982714493822822</v>
       </c>
       <c r="J24" t="n">
-        <v>24.6492551479538</v>
+        <v>24.64925514795381</v>
       </c>
       <c r="K24" t="n">
-        <v>42.12950312344901</v>
+        <v>42.12950312344902</v>
       </c>
       <c r="L24" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308265</v>
       </c>
       <c r="M24" t="n">
-        <v>66.10591290549606</v>
+        <v>66.10591290549608</v>
       </c>
       <c r="N24" t="n">
-        <v>67.85553971582156</v>
+        <v>67.85553971582159</v>
       </c>
       <c r="O24" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425561</v>
       </c>
       <c r="P24" t="n">
-        <v>49.82030874293731</v>
+        <v>49.82030874293732</v>
       </c>
       <c r="Q24" t="n">
-        <v>33.3035570227031</v>
+        <v>33.30355702270311</v>
       </c>
       <c r="R24" t="n">
-        <v>16.19863775472049</v>
+        <v>16.1986377547205</v>
       </c>
       <c r="S24" t="n">
-        <v>4.846088647304408</v>
+        <v>4.84608864730441</v>
       </c>
       <c r="T24" t="n">
         <v>1.051606957939257</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01716442259966144</v>
+        <v>0.01716442259966145</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,46 +32856,46 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2187291448219151</v>
+        <v>0.2187291448219152</v>
       </c>
       <c r="H25" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I25" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826323</v>
       </c>
       <c r="J25" t="n">
         <v>15.4641505389094</v>
       </c>
       <c r="K25" t="n">
-        <v>25.41234973476431</v>
+        <v>25.41234973476432</v>
       </c>
       <c r="L25" t="n">
-        <v>32.51905849470545</v>
+        <v>32.51905849470546</v>
       </c>
       <c r="M25" t="n">
-        <v>34.28678767422074</v>
+        <v>34.28678767422075</v>
       </c>
       <c r="N25" t="n">
-        <v>33.47152449806636</v>
+        <v>33.47152449806637</v>
       </c>
       <c r="O25" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P25" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q25" t="n">
         <v>18.31558320867873</v>
       </c>
       <c r="R25" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901746</v>
       </c>
       <c r="S25" t="n">
-        <v>3.811852460214646</v>
+        <v>3.811852460214647</v>
       </c>
       <c r="T25" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209099</v>
       </c>
       <c r="U25" t="n">
         <v>0.01193068062664993</v>
@@ -32935,10 +32935,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H26" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I26" t="n">
         <v>18.79893564917533</v>
@@ -32947,37 +32947,37 @@
         <v>41.3860622412086</v>
       </c>
       <c r="K26" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967865</v>
       </c>
       <c r="L26" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661204</v>
       </c>
       <c r="M26" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297405</v>
       </c>
       <c r="N26" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O26" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P26" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954474</v>
       </c>
       <c r="Q26" t="n">
         <v>52.65737791543692</v>
       </c>
       <c r="R26" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S26" t="n">
         <v>11.11162041646022</v>
       </c>
       <c r="T26" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U26" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510991</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33029,16 +33029,16 @@
         <v>42.12950312344901</v>
       </c>
       <c r="L27" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M27" t="n">
-        <v>66.10591290549606</v>
+        <v>66.10591290549607</v>
       </c>
       <c r="N27" t="n">
         <v>67.85553971582156</v>
       </c>
       <c r="O27" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P27" t="n">
         <v>49.82030874293731</v>
@@ -33050,7 +33050,7 @@
         <v>16.19863775472049</v>
       </c>
       <c r="S27" t="n">
-        <v>4.846088647304408</v>
+        <v>4.846088647304409</v>
       </c>
       <c r="T27" t="n">
         <v>1.051606957939257</v>
@@ -33096,10 +33096,10 @@
         <v>0.2187291448219151</v>
       </c>
       <c r="H28" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I28" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826322</v>
       </c>
       <c r="J28" t="n">
         <v>15.4641505389094</v>
@@ -33117,22 +33117,22 @@
         <v>33.47152449806636</v>
       </c>
       <c r="O28" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P28" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q28" t="n">
         <v>18.31558320867873</v>
       </c>
       <c r="R28" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S28" t="n">
         <v>3.811852460214646</v>
       </c>
       <c r="T28" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U28" t="n">
         <v>0.01193068062664993</v>
@@ -33172,10 +33172,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H29" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I29" t="n">
         <v>18.79893564917533</v>
@@ -33184,37 +33184,37 @@
         <v>41.3860622412086</v>
       </c>
       <c r="K29" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967865</v>
       </c>
       <c r="L29" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661204</v>
       </c>
       <c r="M29" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297405</v>
       </c>
       <c r="N29" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O29" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P29" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954474</v>
       </c>
       <c r="Q29" t="n">
         <v>52.65737791543692</v>
       </c>
       <c r="R29" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S29" t="n">
         <v>11.11162041646022</v>
       </c>
       <c r="T29" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U29" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510991</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33266,16 +33266,16 @@
         <v>42.12950312344901</v>
       </c>
       <c r="L30" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M30" t="n">
-        <v>66.10591290549606</v>
+        <v>66.10591290549607</v>
       </c>
       <c r="N30" t="n">
         <v>67.85553971582156</v>
       </c>
       <c r="O30" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P30" t="n">
         <v>49.82030874293731</v>
@@ -33287,7 +33287,7 @@
         <v>16.19863775472049</v>
       </c>
       <c r="S30" t="n">
-        <v>4.846088647304408</v>
+        <v>4.846088647304409</v>
       </c>
       <c r="T30" t="n">
         <v>1.051606957939257</v>
@@ -33333,10 +33333,10 @@
         <v>0.2187291448219151</v>
       </c>
       <c r="H31" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I31" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826322</v>
       </c>
       <c r="J31" t="n">
         <v>15.4641505389094</v>
@@ -33354,22 +33354,22 @@
         <v>33.47152449806636</v>
       </c>
       <c r="O31" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P31" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q31" t="n">
         <v>18.31558320867873</v>
       </c>
       <c r="R31" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S31" t="n">
         <v>3.811852460214646</v>
       </c>
       <c r="T31" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U31" t="n">
         <v>0.01193068062664993</v>
@@ -33409,10 +33409,10 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H32" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I32" t="n">
         <v>18.79893564917533</v>
@@ -33421,37 +33421,37 @@
         <v>41.3860622412086</v>
       </c>
       <c r="K32" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967865</v>
       </c>
       <c r="L32" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661204</v>
       </c>
       <c r="M32" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297405</v>
       </c>
       <c r="N32" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O32" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P32" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954474</v>
       </c>
       <c r="Q32" t="n">
         <v>52.65737791543692</v>
       </c>
       <c r="R32" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S32" t="n">
         <v>11.11162041646022</v>
       </c>
       <c r="T32" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U32" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510991</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33503,16 +33503,16 @@
         <v>42.12950312344901</v>
       </c>
       <c r="L33" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M33" t="n">
-        <v>66.10591290549606</v>
+        <v>66.10591290549607</v>
       </c>
       <c r="N33" t="n">
         <v>67.85553971582156</v>
       </c>
       <c r="O33" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P33" t="n">
         <v>49.82030874293731</v>
@@ -33524,7 +33524,7 @@
         <v>16.19863775472049</v>
       </c>
       <c r="S33" t="n">
-        <v>4.846088647304408</v>
+        <v>4.846088647304409</v>
       </c>
       <c r="T33" t="n">
         <v>1.051606957939257</v>
@@ -33570,10 +33570,10 @@
         <v>0.2187291448219151</v>
       </c>
       <c r="H34" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I34" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826322</v>
       </c>
       <c r="J34" t="n">
         <v>15.4641505389094</v>
@@ -33591,22 +33591,22 @@
         <v>33.47152449806636</v>
       </c>
       <c r="O34" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P34" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q34" t="n">
         <v>18.31558320867873</v>
       </c>
       <c r="R34" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S34" t="n">
         <v>3.811852460214646</v>
       </c>
       <c r="T34" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U34" t="n">
         <v>0.01193068062664993</v>
@@ -33646,10 +33646,10 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H35" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I35" t="n">
         <v>18.79893564917533</v>
@@ -33658,37 +33658,37 @@
         <v>41.3860622412086</v>
       </c>
       <c r="K35" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967865</v>
       </c>
       <c r="L35" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661204</v>
       </c>
       <c r="M35" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297405</v>
       </c>
       <c r="N35" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O35" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P35" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954474</v>
       </c>
       <c r="Q35" t="n">
         <v>52.65737791543692</v>
       </c>
       <c r="R35" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S35" t="n">
         <v>11.11162041646022</v>
       </c>
       <c r="T35" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U35" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510991</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33740,16 +33740,16 @@
         <v>42.12950312344901</v>
       </c>
       <c r="L36" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M36" t="n">
-        <v>66.10591290549606</v>
+        <v>66.10591290549607</v>
       </c>
       <c r="N36" t="n">
         <v>67.85553971582156</v>
       </c>
       <c r="O36" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P36" t="n">
         <v>49.82030874293731</v>
@@ -33761,7 +33761,7 @@
         <v>16.19863775472049</v>
       </c>
       <c r="S36" t="n">
-        <v>4.846088647304408</v>
+        <v>4.846088647304409</v>
       </c>
       <c r="T36" t="n">
         <v>1.051606957939257</v>
@@ -33807,10 +33807,10 @@
         <v>0.2187291448219151</v>
       </c>
       <c r="H37" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I37" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826322</v>
       </c>
       <c r="J37" t="n">
         <v>15.4641505389094</v>
@@ -33828,22 +33828,22 @@
         <v>33.47152449806636</v>
       </c>
       <c r="O37" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P37" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q37" t="n">
         <v>18.31558320867873</v>
       </c>
       <c r="R37" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S37" t="n">
         <v>3.811852460214646</v>
       </c>
       <c r="T37" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U37" t="n">
         <v>0.01193068062664993</v>
@@ -33883,10 +33883,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H38" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I38" t="n">
         <v>18.79893564917533</v>
@@ -33895,37 +33895,37 @@
         <v>41.3860622412086</v>
       </c>
       <c r="K38" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967865</v>
       </c>
       <c r="L38" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661204</v>
       </c>
       <c r="M38" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297405</v>
       </c>
       <c r="N38" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O38" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P38" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954474</v>
       </c>
       <c r="Q38" t="n">
         <v>52.65737791543692</v>
       </c>
       <c r="R38" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S38" t="n">
         <v>11.11162041646022</v>
       </c>
       <c r="T38" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U38" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510991</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33977,16 +33977,16 @@
         <v>42.12950312344901</v>
       </c>
       <c r="L39" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M39" t="n">
-        <v>66.10591290549606</v>
+        <v>66.10591290549607</v>
       </c>
       <c r="N39" t="n">
         <v>67.85553971582156</v>
       </c>
       <c r="O39" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P39" t="n">
         <v>49.82030874293731</v>
@@ -33998,7 +33998,7 @@
         <v>16.19863775472049</v>
       </c>
       <c r="S39" t="n">
-        <v>4.846088647304408</v>
+        <v>4.846088647304409</v>
       </c>
       <c r="T39" t="n">
         <v>1.051606957939257</v>
@@ -34044,10 +34044,10 @@
         <v>0.2187291448219151</v>
       </c>
       <c r="H40" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I40" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826322</v>
       </c>
       <c r="J40" t="n">
         <v>15.4641505389094</v>
@@ -34065,22 +34065,22 @@
         <v>33.47152449806636</v>
       </c>
       <c r="O40" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P40" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q40" t="n">
         <v>18.31558320867873</v>
       </c>
       <c r="R40" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S40" t="n">
         <v>3.811852460214646</v>
       </c>
       <c r="T40" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U40" t="n">
         <v>0.01193068062664993</v>
@@ -34120,10 +34120,10 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H41" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I41" t="n">
         <v>18.79893564917533</v>
@@ -34132,37 +34132,37 @@
         <v>41.3860622412086</v>
       </c>
       <c r="K41" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967865</v>
       </c>
       <c r="L41" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661204</v>
       </c>
       <c r="M41" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297405</v>
       </c>
       <c r="N41" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O41" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P41" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954474</v>
       </c>
       <c r="Q41" t="n">
         <v>52.65737791543692</v>
       </c>
       <c r="R41" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S41" t="n">
         <v>11.11162041646022</v>
       </c>
       <c r="T41" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U41" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510991</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34214,16 +34214,16 @@
         <v>42.12950312344901</v>
       </c>
       <c r="L42" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M42" t="n">
-        <v>66.10591290549606</v>
+        <v>66.10591290549607</v>
       </c>
       <c r="N42" t="n">
         <v>67.85553971582156</v>
       </c>
       <c r="O42" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P42" t="n">
         <v>49.82030874293731</v>
@@ -34235,7 +34235,7 @@
         <v>16.19863775472049</v>
       </c>
       <c r="S42" t="n">
-        <v>4.846088647304408</v>
+        <v>4.846088647304409</v>
       </c>
       <c r="T42" t="n">
         <v>1.051606957939257</v>
@@ -34281,10 +34281,10 @@
         <v>0.2187291448219151</v>
       </c>
       <c r="H43" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I43" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826322</v>
       </c>
       <c r="J43" t="n">
         <v>15.4641505389094</v>
@@ -34302,22 +34302,22 @@
         <v>33.47152449806636</v>
       </c>
       <c r="O43" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P43" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q43" t="n">
         <v>18.31558320867873</v>
       </c>
       <c r="R43" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S43" t="n">
         <v>3.811852460214646</v>
       </c>
       <c r="T43" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U43" t="n">
         <v>0.01193068062664993</v>
@@ -34357,10 +34357,10 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4876191076888738</v>
+        <v>0.4876191076888739</v>
       </c>
       <c r="H44" t="n">
-        <v>4.99382918661868</v>
+        <v>4.993829186618681</v>
       </c>
       <c r="I44" t="n">
         <v>18.79893564917533</v>
@@ -34369,37 +34369,37 @@
         <v>41.3860622412086</v>
       </c>
       <c r="K44" t="n">
-        <v>62.02697906967864</v>
+        <v>62.02697906967865</v>
       </c>
       <c r="L44" t="n">
-        <v>76.94995233661203</v>
+        <v>76.94995233661204</v>
       </c>
       <c r="M44" t="n">
-        <v>85.62164864297404</v>
+        <v>85.62164864297405</v>
       </c>
       <c r="N44" t="n">
-        <v>87.00709643269505</v>
+        <v>87.00709643269506</v>
       </c>
       <c r="O44" t="n">
-        <v>82.15833393061381</v>
+        <v>82.15833393061382</v>
       </c>
       <c r="P44" t="n">
-        <v>70.12023720954473</v>
+        <v>70.12023720954474</v>
       </c>
       <c r="Q44" t="n">
         <v>52.65737791543692</v>
       </c>
       <c r="R44" t="n">
-        <v>30.63040377336125</v>
+        <v>30.63040377336126</v>
       </c>
       <c r="S44" t="n">
         <v>11.11162041646022</v>
       </c>
       <c r="T44" t="n">
-        <v>2.134552643908046</v>
+        <v>2.134552643908047</v>
       </c>
       <c r="U44" t="n">
-        <v>0.0390095286151099</v>
+        <v>0.03900952861510991</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34451,16 +34451,16 @@
         <v>42.12950312344901</v>
       </c>
       <c r="L45" t="n">
-        <v>56.64831605308262</v>
+        <v>56.64831605308263</v>
       </c>
       <c r="M45" t="n">
-        <v>66.10591290549606</v>
+        <v>66.10591290549607</v>
       </c>
       <c r="N45" t="n">
         <v>67.85553971582156</v>
       </c>
       <c r="O45" t="n">
-        <v>62.07456218425558</v>
+        <v>62.07456218425559</v>
       </c>
       <c r="P45" t="n">
         <v>49.82030874293731</v>
@@ -34472,7 +34472,7 @@
         <v>16.19863775472049</v>
       </c>
       <c r="S45" t="n">
-        <v>4.846088647304408</v>
+        <v>4.846088647304409</v>
       </c>
       <c r="T45" t="n">
         <v>1.051606957939257</v>
@@ -34518,10 +34518,10 @@
         <v>0.2187291448219151</v>
       </c>
       <c r="H46" t="n">
-        <v>1.944700942143937</v>
+        <v>1.944700942143938</v>
       </c>
       <c r="I46" t="n">
-        <v>6.577781918826321</v>
+        <v>6.577781918826322</v>
       </c>
       <c r="J46" t="n">
         <v>15.4641505389094</v>
@@ -34539,22 +34539,22 @@
         <v>33.47152449806636</v>
       </c>
       <c r="O46" t="n">
-        <v>30.91637039719215</v>
+        <v>30.91637039719216</v>
       </c>
       <c r="P46" t="n">
-        <v>26.45429584282506</v>
+        <v>26.45429584282507</v>
       </c>
       <c r="Q46" t="n">
         <v>18.31558320867873</v>
       </c>
       <c r="R46" t="n">
-        <v>9.834857729901742</v>
+        <v>9.834857729901744</v>
       </c>
       <c r="S46" t="n">
         <v>3.811852460214646</v>
       </c>
       <c r="T46" t="n">
-        <v>0.9345699824209096</v>
+        <v>0.9345699824209097</v>
       </c>
       <c r="U46" t="n">
         <v>0.01193068062664993</v>
@@ -35170,28 +35170,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>72.72580229576329</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L8" t="n">
-        <v>135.7293992974318</v>
+        <v>97.86286533098477</v>
       </c>
       <c r="M8" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="N8" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>130.2453831642022</v>
+        <v>0</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>95.38611483488586</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35252,13 +35252,13 @@
         <v>60.86277427586479</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>135.7293992974318</v>
       </c>
       <c r="L9" t="n">
         <v>135.7293992974318</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>69.38260888833734</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>135.7293992974318</v>
       </c>
       <c r="P9" t="n">
-        <v>135.7293992974318</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>69.38260888833734</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K11" t="n">
-        <v>304.593011438146</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L11" t="n">
         <v>428.349319089083</v>
       </c>
       <c r="M11" t="n">
-        <v>482.8329276864972</v>
+        <v>482.8329276864973</v>
       </c>
       <c r="N11" t="n">
         <v>469.1599839960443</v>
@@ -35425,7 +35425,7 @@
         <v>390.2437727920623</v>
       </c>
       <c r="P11" t="n">
-        <v>300.5817487813156</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q11" t="n">
         <v>148.0434927503228</v>
@@ -35498,16 +35498,16 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N12" t="n">
-        <v>440.1759432262406</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O12" t="n">
-        <v>458.2361286328928</v>
+        <v>121.4577469299863</v>
       </c>
       <c r="P12" t="n">
-        <v>354.9677019507123</v>
+        <v>354.9677019507124</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>39.19216003346906</v>
+        <v>39.19216003346901</v>
       </c>
       <c r="K13" t="n">
-        <v>142.5406494137813</v>
+        <v>142.5406494137812</v>
       </c>
       <c r="L13" t="n">
-        <v>217.3270467147488</v>
+        <v>217.3270467147487</v>
       </c>
       <c r="M13" t="n">
         <v>236.6568230935996</v>
       </c>
       <c r="N13" t="n">
-        <v>236.2747272123934</v>
+        <v>236.2747272123933</v>
       </c>
       <c r="O13" t="n">
-        <v>213.5592748752458</v>
+        <v>213.5592748752457</v>
       </c>
       <c r="P13" t="n">
         <v>173.2435005556747</v>
       </c>
       <c r="Q13" t="n">
-        <v>63.34829097035954</v>
+        <v>63.34829097035949</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,13 +35647,13 @@
         <v>114.1118645369719</v>
       </c>
       <c r="K14" t="n">
-        <v>304.593011438146</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L14" t="n">
         <v>428.349319089083</v>
       </c>
       <c r="M14" t="n">
-        <v>482.8329276864968</v>
+        <v>482.8329276864973</v>
       </c>
       <c r="N14" t="n">
         <v>469.1599839960443</v>
@@ -35662,7 +35662,7 @@
         <v>390.2437727920623</v>
       </c>
       <c r="P14" t="n">
-        <v>300.5817487813156</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q14" t="n">
         <v>148.0434927503228</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>85.5120294238186</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
         <v>273.9381420731345</v>
@@ -35735,13 +35735,13 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N15" t="n">
-        <v>161.9950741680076</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O15" t="n">
-        <v>458.2361286328928</v>
+        <v>121.4577469299863</v>
       </c>
       <c r="P15" t="n">
-        <v>354.9677019507123</v>
+        <v>354.9677019507124</v>
       </c>
       <c r="Q15" t="n">
         <v>192.6688396344144</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>39.19216003346906</v>
+        <v>39.19216003346901</v>
       </c>
       <c r="K16" t="n">
-        <v>142.5406494137813</v>
+        <v>142.5406494137812</v>
       </c>
       <c r="L16" t="n">
-        <v>217.3270467147488</v>
+        <v>217.3270467147487</v>
       </c>
       <c r="M16" t="n">
         <v>236.6568230935996</v>
       </c>
       <c r="N16" t="n">
-        <v>236.2747272123934</v>
+        <v>236.2747272123933</v>
       </c>
       <c r="O16" t="n">
-        <v>213.5592748752458</v>
+        <v>213.5592748752457</v>
       </c>
       <c r="P16" t="n">
         <v>173.2435005556747</v>
       </c>
       <c r="Q16" t="n">
-        <v>63.34829097035954</v>
+        <v>63.34829097035949</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,16 +35881,16 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>114.1118645369719</v>
+        <v>114.1118645369718</v>
       </c>
       <c r="K17" t="n">
-        <v>304.593011438146</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L17" t="n">
         <v>428.349319089083</v>
       </c>
       <c r="M17" t="n">
-        <v>482.8329276864972</v>
+        <v>482.8329276864973</v>
       </c>
       <c r="N17" t="n">
         <v>469.1599839960443</v>
@@ -35899,7 +35899,7 @@
         <v>390.2437727920623</v>
       </c>
       <c r="P17" t="n">
-        <v>300.5817487813156</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q17" t="n">
         <v>148.0434927503228</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>18.1893202478059</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K18" t="n">
         <v>273.9381420731345</v>
@@ -35969,16 +35969,16 @@
         <v>426.1653313764318</v>
       </c>
       <c r="M18" t="n">
-        <v>556.0385932188561</v>
+        <v>133.7481820921309</v>
       </c>
       <c r="N18" t="n">
         <v>584.2854852947328</v>
       </c>
       <c r="O18" t="n">
-        <v>458.2361286328928</v>
+        <v>458.2361286328929</v>
       </c>
       <c r="P18" t="n">
-        <v>0</v>
+        <v>354.9677019507124</v>
       </c>
       <c r="Q18" t="n">
         <v>192.6688396344144</v>
@@ -36042,7 +36042,7 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>59.3559737192526</v>
+        <v>59.35597371925262</v>
       </c>
       <c r="L19" t="n">
         <v>134.1423710202201</v>
@@ -36057,7 +36057,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P19" t="n">
-        <v>90.05882486114606</v>
+        <v>90.05882486114608</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36118,10 +36118,10 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>114.1118645369714</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K20" t="n">
-        <v>304.593011438146</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L20" t="n">
         <v>428.349319089083</v>
@@ -36136,7 +36136,7 @@
         <v>390.2437727920623</v>
       </c>
       <c r="P20" t="n">
-        <v>300.5817487813156</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q20" t="n">
         <v>148.0434927503228</v>
@@ -36200,7 +36200,7 @@
         <v>85.5120294238186</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L21" t="n">
         <v>426.1653313764318</v>
@@ -36209,10 +36209,10 @@
         <v>556.0385932188561</v>
       </c>
       <c r="N21" t="n">
-        <v>435.9332162411422</v>
+        <v>161.9950741680076</v>
       </c>
       <c r="O21" t="n">
-        <v>458.2361286328928</v>
+        <v>458.2361286328929</v>
       </c>
       <c r="P21" t="n">
         <v>354.9677019507123</v>
@@ -36279,7 +36279,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>59.3559737192526</v>
+        <v>59.35597371925262</v>
       </c>
       <c r="L22" t="n">
         <v>134.1423710202201</v>
@@ -36294,7 +36294,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P22" t="n">
-        <v>90.05882486114606</v>
+        <v>90.05882486114608</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36355,10 +36355,10 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>114.1118645369727</v>
+        <v>114.1118645369719</v>
       </c>
       <c r="K23" t="n">
-        <v>304.593011438146</v>
+        <v>304.5930114381461</v>
       </c>
       <c r="L23" t="n">
         <v>428.349319089083</v>
@@ -36373,7 +36373,7 @@
         <v>390.2437727920623</v>
       </c>
       <c r="P23" t="n">
-        <v>300.5817487813156</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q23" t="n">
         <v>148.0434927503228</v>
@@ -36449,7 +36449,7 @@
         <v>161.9950741680076</v>
       </c>
       <c r="O24" t="n">
-        <v>458.2361286328928</v>
+        <v>458.2361286328929</v>
       </c>
       <c r="P24" t="n">
         <v>354.9677019507123</v>
@@ -36516,7 +36516,7 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>59.3559737192526</v>
+        <v>59.35597371925262</v>
       </c>
       <c r="L25" t="n">
         <v>134.1423710202201</v>
@@ -36531,7 +36531,7 @@
         <v>130.3745991807171</v>
       </c>
       <c r="P25" t="n">
-        <v>90.05882486114606</v>
+        <v>90.05882486114608</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -36610,10 +36610,10 @@
         <v>493.7808380329742</v>
       </c>
       <c r="P26" t="n">
-        <v>342.3106681893561</v>
+        <v>404.1188140222276</v>
       </c>
       <c r="Q26" t="n">
-        <v>251.5805579912347</v>
+        <v>189.772412158363</v>
       </c>
       <c r="R26" t="n">
         <v>44.435565375168</v>
@@ -36671,16 +36671,16 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K27" t="n">
-        <v>129.8286000046422</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L27" t="n">
         <v>426.1653313764318</v>
       </c>
       <c r="M27" t="n">
-        <v>556.0385932188561</v>
+        <v>133.7481820921309</v>
       </c>
       <c r="N27" t="n">
         <v>584.2854852947328</v>
@@ -36692,7 +36692,7 @@
         <v>354.9677019507123</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>59.54454957985232</v>
+        <v>59.54454957985233</v>
       </c>
       <c r="K28" t="n">
         <v>162.8930389601645</v>
       </c>
       <c r="L28" t="n">
-        <v>237.6794362611317</v>
+        <v>237.679436261132</v>
       </c>
       <c r="M28" t="n">
         <v>257.0092126399829</v>
@@ -36832,13 +36832,13 @@
         <v>217.6489297778838</v>
       </c>
       <c r="K29" t="n">
-        <v>346.3219308461863</v>
+        <v>408.130076679058</v>
       </c>
       <c r="L29" t="n">
-        <v>531.8863843299949</v>
+        <v>531.8863843299948</v>
       </c>
       <c r="M29" t="n">
-        <v>586.3699929274092</v>
+        <v>524.5618470945378</v>
       </c>
       <c r="N29" t="n">
         <v>572.6970492369562</v>
@@ -36847,13 +36847,13 @@
         <v>493.7808380329742</v>
       </c>
       <c r="P29" t="n">
-        <v>404.1188140222276</v>
+        <v>404.1188140222275</v>
       </c>
       <c r="Q29" t="n">
         <v>251.5805579912347</v>
       </c>
       <c r="R29" t="n">
-        <v>44.435565375168</v>
+        <v>44.43556537516798</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K30" t="n">
         <v>273.9381420731345</v>
@@ -36917,19 +36917,19 @@
         <v>426.1653313764318</v>
       </c>
       <c r="M30" t="n">
-        <v>556.0385932188561</v>
+        <v>133.7481820921309</v>
       </c>
       <c r="N30" t="n">
         <v>584.2854852947328</v>
       </c>
       <c r="O30" t="n">
-        <v>314.1265865644004</v>
+        <v>458.2361286328928</v>
       </c>
       <c r="P30" t="n">
         <v>354.9677019507123</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37008,7 +37008,7 @@
         <v>193.595890102058</v>
       </c>
       <c r="Q31" t="n">
-        <v>83.70068051674281</v>
+        <v>83.70068051674279</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>114.1118645369719</v>
+        <v>252.7648399641153</v>
       </c>
       <c r="K32" t="n">
-        <v>304.593011438146</v>
+        <v>359.8789208626977</v>
       </c>
       <c r="L32" t="n">
         <v>428.349319089083</v>
       </c>
       <c r="M32" t="n">
-        <v>538.1188371110486</v>
+        <v>482.8329276864972</v>
       </c>
       <c r="N32" t="n">
-        <v>607.8129594231875</v>
+        <v>469.1599839960443</v>
       </c>
       <c r="O32" t="n">
         <v>390.2437727920623</v>
       </c>
       <c r="P32" t="n">
-        <v>300.5817487813156</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q32" t="n">
         <v>148.0434927503228</v>
       </c>
       <c r="R32" t="n">
-        <v>79.5514755613994</v>
+        <v>79.55147556139951</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,16 +37145,16 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K33" t="n">
-        <v>129.8286000046424</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L33" t="n">
         <v>426.1653313764318</v>
       </c>
       <c r="M33" t="n">
-        <v>556.0385932188561</v>
+        <v>133.7481820921312</v>
       </c>
       <c r="N33" t="n">
         <v>584.2854852947328</v>
@@ -37166,7 +37166,7 @@
         <v>354.9677019507123</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,10 +37224,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>94.66045976608373</v>
+        <v>55.54268406839402</v>
       </c>
       <c r="K34" t="n">
-        <v>158.8911734487078</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L34" t="n">
         <v>134.1423710202201</v>
@@ -37239,7 +37239,7 @@
         <v>153.0900515178647</v>
       </c>
       <c r="O34" t="n">
-        <v>130.3745991807171</v>
+        <v>269.0275746078605</v>
       </c>
       <c r="P34" t="n">
         <v>90.05882486114606</v>
@@ -37321,7 +37321,7 @@
         <v>390.2437727920623</v>
       </c>
       <c r="P35" t="n">
-        <v>300.5817487813156</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q35" t="n">
         <v>148.0434927503228</v>
@@ -37464,7 +37464,7 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>59.3559737192526</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L37" t="n">
         <v>134.1423710202201</v>
@@ -37558,7 +37558,7 @@
         <v>390.2437727920623</v>
       </c>
       <c r="P38" t="n">
-        <v>300.5817487813156</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q38" t="n">
         <v>148.0434927503228</v>
@@ -37619,19 +37619,19 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>85.5120294238186</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>273.9381420731345</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>426.1653313764318</v>
       </c>
       <c r="M39" t="n">
-        <v>556.0385932188561</v>
+        <v>493.1983535890842</v>
       </c>
       <c r="N39" t="n">
-        <v>161.9950741680076</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O39" t="n">
         <v>458.2361286328928</v>
@@ -37701,7 +37701,7 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>59.3559737192526</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L40" t="n">
         <v>134.1423710202201</v>
@@ -37795,7 +37795,7 @@
         <v>390.2437727920623</v>
       </c>
       <c r="P41" t="n">
-        <v>300.5817487813156</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q41" t="n">
         <v>148.0434927503228</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>85.5120294238186</v>
       </c>
       <c r="K42" t="n">
-        <v>129.8286000046423</v>
+        <v>273.9381420731345</v>
       </c>
       <c r="L42" t="n">
         <v>426.1653313764318</v>
@@ -37871,13 +37871,13 @@
         <v>584.2854852947328</v>
       </c>
       <c r="O42" t="n">
-        <v>458.2361286328928</v>
+        <v>35.94571750616758</v>
       </c>
       <c r="P42" t="n">
         <v>354.9677019507123</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>192.6688396344144</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37938,7 +37938,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>59.3559737192526</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L43" t="n">
         <v>134.1423710202201</v>
@@ -38032,7 +38032,7 @@
         <v>390.2437727920623</v>
       </c>
       <c r="P44" t="n">
-        <v>300.5817487813156</v>
+        <v>300.5817487813157</v>
       </c>
       <c r="Q44" t="n">
         <v>148.0434927503228</v>
@@ -38102,10 +38102,10 @@
         <v>426.1653313764318</v>
       </c>
       <c r="M45" t="n">
-        <v>556.0385932188561</v>
+        <v>133.7481820921311</v>
       </c>
       <c r="N45" t="n">
-        <v>161.9950741680076</v>
+        <v>584.2854852947328</v>
       </c>
       <c r="O45" t="n">
         <v>458.2361286328928</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>59.3559737192526</v>
+        <v>59.35597371925261</v>
       </c>
       <c r="L46" t="n">
         <v>134.1423710202201</v>
